--- a/data/data_stability_metrics.xlsx
+++ b/data/data_stability_metrics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="66" documentId="8_{DC32657E-5DC6-414C-90DE-1661DCE0891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F267EB77-B48E-43C6-8CEB-20B5EACA3396}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B55C31F2-F4B0-4182-AADB-E40AE0695D91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B55C31F2-F4B0-4182-AADB-E40AE0695D91}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -151,13 +151,13 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -178,9 +178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +218,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -324,7 +324,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,7 +466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9AA97E-96DB-482B-9B05-4F1356A0229E}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FF0591-48DE-4D43-883F-2053DB3FA474}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/data/data_stability_metrics.xlsx
+++ b/data/data_stability_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2017/StreamStability-IrMaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{DC32657E-5DC6-414C-90DE-1661DCE0891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F267EB77-B48E-43C6-8CEB-20B5EACA3396}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{DC32657E-5DC6-414C-90DE-1661DCE0891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC711208-852E-411A-B95E-19BE05BFF1D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B55C31F2-F4B0-4182-AADB-E40AE0695D91}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B55C31F2-F4B0-4182-AADB-E40AE0695D91}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="epilithic_algae" sheetId="3" r:id="rId4"/>
     <sheet name="decapoda_abundance" sheetId="5" r:id="rId5"/>
     <sheet name="macro_density" sheetId="6" r:id="rId6"/>
+    <sheet name="env_QPA" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="28">
   <si>
     <t>QPA_leaflitter</t>
   </si>
@@ -92,6 +93,39 @@
   </si>
   <si>
     <t>Missed date from 2020-09-08.  Red dates are for shrimps</t>
+  </si>
+  <si>
+    <t>QPA_temp</t>
+  </si>
+  <si>
+    <t>QPB_temp</t>
+  </si>
+  <si>
+    <t>QPA_cond</t>
+  </si>
+  <si>
+    <t>QPB_cond</t>
+  </si>
+  <si>
+    <t>QPA_potassium</t>
+  </si>
+  <si>
+    <t>QPB_potassium</t>
+  </si>
+  <si>
+    <t>QPA_nitrate</t>
+  </si>
+  <si>
+    <t>QPB_nitrate</t>
+  </si>
+  <si>
+    <t>QPA_dissolv_org_carbon</t>
+  </si>
+  <si>
+    <t>QPB__dissolv_org_carbon</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -144,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -160,6 +194,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9AA97E-96DB-482B-9B05-4F1356A0229E}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4655,4 +4692,9303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66846F-FA3A-4CA6-886A-A34DFF3F2CB2}">
+  <dimension ref="A1:K265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>42990</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-6.1956712920967404E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-0.15144886931706605</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.27863853255546034</v>
+      </c>
+      <c r="G2" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-0.88101987969696938</v>
+      </c>
+      <c r="I2" s="8">
+        <v>-1.7524152916632336</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-0.21354598474312642</v>
+      </c>
+      <c r="K2" s="8">
+        <v>-0.16065265331860537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>42996</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.10755075433064656</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9.6117723253667742E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.13038435311078619</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.11043300247343904</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.46315842434118243</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-0.6059390112839379</v>
+      </c>
+      <c r="K3" s="8">
+        <v>-0.77481142255992019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>43004</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.1123676637365949</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.7469892353169501</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.39194579611591807</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.74628468025710248</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-0.92439274240247249</v>
+      </c>
+      <c r="K4" s="8">
+        <v>-0.91015277042968235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>43011</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.10755075433064656</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9.6117723253667742E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.20579942006973265</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.15062753842157195</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.91351680499142973</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.0968594398406954</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.55746023459349148</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.93316205358691795</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-0.3346239162963624</v>
+      </c>
+      <c r="K5" s="8">
+        <v>-0.37357465056127692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>43018</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.10332241822112555</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.10462841292157664</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.17999770208325833</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.16329322299367968</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.1446285259548163</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.1679553615244256</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.3423158416429357</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.1425754120892258</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-4.4469654699192292E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>-0.10083415810769501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>43025</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-0.14549916683261949</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-0.17684705992267646</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>43032</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-4.1211612651120541E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-5.7279265627265936E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.0958383617853844</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.0862773305101585</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.84937064315479349</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.1563056049011278</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-0.3546245830030319</v>
+      </c>
+      <c r="K8" s="8">
+        <v>-0.46212804790272199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>43039</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.7620215273199272E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-4.4892317136540471E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.0178768203156725</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.99732984449366224</v>
+      </c>
+      <c r="H9" s="8">
+        <v>7.2658384248806079E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.71143794892693435</v>
+      </c>
+      <c r="J9" s="8">
+        <v>-1.527050000693015E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>-0.37357465056127692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>43046</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7.0142236850407297E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.7710176663545878E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.95067670217815E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.2711912492632456</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.3712962855424558</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.8254417587201028</v>
+      </c>
+      <c r="I10" s="8">
+        <v>2.0449448054447728</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.3485729334104149</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.50822990524170886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>43053</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-1.6165580725032838E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>-5.4430260851191098E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.1681590233650105</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.97973246101803713</v>
+      </c>
+      <c r="I11" s="8">
+        <v>-0.24833789488695943</v>
+      </c>
+      <c r="J11" s="8">
+        <v>-9.8454275945365397E-4</v>
+      </c>
+      <c r="K11" s="8">
+        <v>8.1487398686259566E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>43060</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9.4172098161223843E-3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-2.7762013769029668E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.026845490298433</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0427922185704197</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.2477785589529591</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.4428506675658335</v>
+      </c>
+      <c r="J12" s="8">
+        <v>-0.3053535339962492</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-0.3906690839205772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>43067</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2.1967288970410986E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-1.5373692912077519E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.94307560723297412</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.91243040070717618</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.2506074151534368</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.4428506675658335</v>
+      </c>
+      <c r="J13" s="8">
+        <v>-0.61901109285129075</v>
+      </c>
+      <c r="K13" s="8">
+        <v>-0.77481142255992019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>43074</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.10253314601502107</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.0879918953133802E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.3055588927674535</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.2703703669524951</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2.7324687284503559</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2.6032245878374534</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.59543301134194071</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.73627371137375874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>43081</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2.3985675984604538E-2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.7421826598736347E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-2.9148015376906949E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.0178768203156725</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.0647711252891949</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.4239433357020437</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.4631216319394527</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.32837022609289535</v>
+      </c>
+      <c r="K15" s="8">
+        <v>-8.8013469678633591E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>43088</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7.4959819110921436E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-1.1278124047340295E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.4957324248440933</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1.3792644551916327</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.4705536570471764</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2.4025538923753023</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.3799764723850745</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.96053395738804348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>43095</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.5291670685055421E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4.8142097441616662E-3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-5.3008796503813474E-2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>43102</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.15351258362330422</v>
+      </c>
+      <c r="E18" s="8">
+        <v>9.1066950551935866E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.97178571311540562</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.93743170291259348</v>
+      </c>
+      <c r="H18" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1.6515560168816472</v>
+      </c>
+      <c r="J18" s="8">
+        <v>-0.10555734667903059</v>
+      </c>
+      <c r="K18" s="8">
+        <v>-0.16752553260636732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>43109</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.4666282173668011E-3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.6492183568700624E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-5.8433280613834479E-3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.94307560723297412</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.98563380473047102</v>
+      </c>
+      <c r="H19" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.21504154078589224</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.18361689376263934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>43116</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1.9387966735974971E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2.0693961436426038E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-4.8484371980200308E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>-7.0201197044186328E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.0619368101097029</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H20" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.68993174370597088</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.17421954626563713</v>
+      </c>
+      <c r="K20" s="8">
+        <v>-0.54913942489235179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>43123</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1.9387966735974971E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2.0693961436426038E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-4.4558450521248009E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-1.8113420653197671E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.99047784612755818</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.99732984449366224</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.2975125646270973</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1.3611000175471408</v>
+      </c>
+      <c r="J21" s="8">
+        <v>-0.27691559867571564</v>
+      </c>
+      <c r="K21" s="8">
+        <v>-0.51928646174267057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>43130</v>
+      </c>
+      <c r="B22" s="8">
+        <v>-3.9231121324721126E-3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2.0887736053916846E-3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-4.0004611901085146E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-6.0136410428045559E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.93331943228760939</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.98563380473047102</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.2784643696564031</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1.2179991739064675</v>
+      </c>
+      <c r="J22" s="8">
+        <v>-0.4171449399843658</v>
+      </c>
+      <c r="K22" s="8">
+        <v>-0.62247069797790122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>43137</v>
+      </c>
+      <c r="B23" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2.0887736053916846E-3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-2.6822875199020955E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-4.0305732247560067E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.1525337054619296</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.1777115364697903</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.8536567965205628</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.5088812490889194</v>
+      </c>
+      <c r="J23" s="8">
+        <v>-7.4547109936470263E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>-0.28444687066526958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>43144</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-2.1302626086494862E-3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>-1.1278124047340295E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1.0619368101097029</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.0316189179722943</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.8945406129319693</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1.8494527854610729</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.30252899490900809</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.11323609700083975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>43151</v>
+      </c>
+      <c r="B25" s="8">
+        <v>-1.3401856087015879E-2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2.5047398954991394E-3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-1.2641450775204508E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.98117545346524471</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.98563380473047102</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1.7665049010173879</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1.7107130477294121</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.75403804151857923</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.38913021370057838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>43158</v>
+      </c>
+      <c r="B26" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>-6.566270851528494E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>-8.9166025103159685E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.90346646913792827</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.93743170291259348</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.4635294123961085</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1.3000123255673026</v>
+      </c>
+      <c r="J26" s="8">
+        <v>-0.23124556184252715</v>
+      </c>
+      <c r="K26" s="8">
+        <v>-0.39932714666369173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>43165</v>
+      </c>
+      <c r="B27" s="8">
+        <v>-4.730340776269721E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>-1.8524072384325872E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>-4.0305732247560067E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.77425473765792219</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.81964866725620988</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.81065613097410316</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1.1333160866764289</v>
+      </c>
+      <c r="J27" s="8">
+        <v>-0.71563792854036257</v>
+      </c>
+      <c r="K27" s="8">
+        <v>-0.95460453300051606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>43172</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>7.818043381096354E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2.6159403024790372E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.76269391525684616</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.79147779028951348</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.60705717573286355</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1.1145361920248327</v>
+      </c>
+      <c r="J28" s="8">
+        <v>-0.3546245830030319</v>
+      </c>
+      <c r="K28" s="8">
+        <v>-0.44377890923452545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>43179</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2.8562343012016236E-2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.10357862441657414</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5.3345543328947108E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.71506586626759139</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.73263729026658009</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.73789677669167464</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1.1471731213378553</v>
+      </c>
+      <c r="J29" s="8">
+        <v>-0.4279558560885815</v>
+      </c>
+      <c r="K29" s="8">
+        <v>-0.57991108355910559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>43186</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.11086652757416539</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5.8441095755547276E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.79698298873547824</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.84704764144432432</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1.1338831408452954</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1.3499267169490157</v>
+      </c>
+      <c r="J30" s="8">
+        <v>-0.32477161985335073</v>
+      </c>
+      <c r="K30" s="8">
+        <v>-0.63339976851009161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>43193</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2.3985675984604538E-2</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6.7726229178179777E-3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.12630687549413022</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5.462186768855197E-2</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.76269391525684616</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.79147779028951348</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-2.4214649206441181</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1.0905542273383473</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.38779364656369614</v>
+      </c>
+      <c r="K31" s="8">
+        <v>-0.62247069797790122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>43200</v>
+      </c>
+      <c r="B32" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.16635226618634461</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.12242355380535035</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.7856834334815449</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.77708905283741392</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.70918667080924336</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.99912002137871536</v>
+      </c>
+      <c r="J32" s="8">
+        <v>-0.24926406734520556</v>
+      </c>
+      <c r="K32" s="8">
+        <v>-0.3906690839205772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>43207</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.10774964193391216</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2.2214624733774103E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.86222351060387925</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.81964866725620988</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2.0546084697873161</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1.9852543266201348</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.70624737768223078</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.43168982811937456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>43214</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.9791597637749903E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>-4.3790949447545087E-4</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.81920612552018846</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.84704764144432432</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.87847872731286425</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1.0097021307092524</v>
+      </c>
+      <c r="J34" s="8">
+        <v>5.420187280783733E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>-0.24641947507603026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B35" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>8.5655108227669391E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>5.0787997177829947E-2</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.77425473765792219</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.79147779028951348</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.35804424444023669</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1.0758840375905536</v>
+      </c>
+      <c r="J35" s="8">
+        <v>-0.39586754153708109</v>
+      </c>
+      <c r="K35" s="8">
+        <v>-0.70160801853662524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>43228</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>-4.9701657583952119E-2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>-8.1829235039305406E-2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.80815628933360351</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.83344198938854575</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1.2013934323720239</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1.1379564662329311</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.20931086607690727</v>
+      </c>
+      <c r="K36" s="8">
+        <v>4.3126530813813388E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>43235</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>-6.0724426874702253E-2</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-0.11452159672484769</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.7856834334815449</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.76249025341626131</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1.3267311106262376</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1.2349487322202408</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.32325512542612495</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0.21232699964507079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>43242</v>
+      </c>
+      <c r="B38" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>-0.10865289344665302</v>
+      </c>
+      <c r="E38" s="8">
+        <v>-0.14831897630813839</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.75099787549365493</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.77708905283741392</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1.098338203425884</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1.0044250736084086</v>
+      </c>
+      <c r="J38" s="8">
+        <v>-8.2209982682039426E-2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>-0.18141464476703445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>43249</v>
+      </c>
+      <c r="B39" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>-0.15628094243590782</v>
+      </c>
+      <c r="E39" s="8">
+        <v>-0.15931673051767983</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.91351680499142973</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.86047066177646492</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1.2893934401885931</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1.3386271616950822</v>
+      </c>
+      <c r="J39" s="8">
+        <v>2.6989309282952637E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>-0.30007218856835038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>43256</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.10755075433064656</v>
+      </c>
+      <c r="C40" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7.1183582290118494E-3</v>
+      </c>
+      <c r="E40" s="8">
+        <v>-2.0860675128336476E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.70279577367577728</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.70186563159982651</v>
+      </c>
+      <c r="H40" s="8">
+        <v>-3.5200772093122281</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.40706895769013884</v>
+      </c>
+      <c r="J40" s="8">
+        <v>-9.7714169218004659E-2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>-0.8004538531732579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>43263</v>
+      </c>
+      <c r="B41" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>7.0142236850407297E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>-2.5633107063432314E-2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>-1.400663870054434E-2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.80815628933360351</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.84704764144432432</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.91469999074718256</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1.2265098635743761</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.99042681958280954</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0.4833618386636952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>43270</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.12428754668617056</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.10038212204012541</v>
+      </c>
+      <c r="D42" s="8">
+        <v>6.8487304605303986E-2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>8.1055124756707397E-2</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.61241171220750823</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.63732711046225521</v>
+      </c>
+      <c r="H42" s="8">
+        <v>-0.59333780724518848</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.49006587726110679</v>
+      </c>
+      <c r="J42" s="8">
+        <v>-0.55529527846518301</v>
+      </c>
+      <c r="K42" s="8">
+        <v>-0.70160801853662524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>43277</v>
+      </c>
+      <c r="B43" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>7.0142236850407297E-2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>-2.2072272440423032E-2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>-5.7279265627265936E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.69037325367722013</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.76249025341626131</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.62833457418014849</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.95563490943897655</v>
+      </c>
+      <c r="J43" s="8">
+        <v>-0.18757049833986572</v>
+      </c>
+      <c r="K43" s="8">
+        <v>-0.54913942489235179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>43284</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.12428754668617056</v>
+      </c>
+      <c r="C44" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.10774964193391216</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4.178472092787134E-2</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.69037325367722013</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.73263729026658009</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.1688022448017083</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.59895996550024411</v>
+      </c>
+      <c r="J44" s="8">
+        <v>-0.34457424714953039</v>
+      </c>
+      <c r="K44" s="8">
+        <v>-0.65562290529480183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>43291</v>
+      </c>
+      <c r="B45" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C45" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-0.12165697786985963</v>
+      </c>
+      <c r="E45" s="8">
+        <v>-0.17043678156175732</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.72718722679993619</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.67011693328524624</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1.1146517789174077</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1.187628076030169</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0.21703289068248333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>43298</v>
+      </c>
+      <c r="B46" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C46" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2.5047398954991394E-3</v>
+      </c>
+      <c r="E46" s="8">
+        <v>-2.6377930503091316E-2</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.66505544569293018</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.65385641241346582</v>
+      </c>
+      <c r="H46" s="8">
+        <v>-1.3998136731121369</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.73941180096934045</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0.14400775566759352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>43305</v>
+      </c>
+      <c r="B47" s="8">
+        <v>9.9076127339674344E-2</v>
+      </c>
+      <c r="C47" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>8.0321762252306708E-2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6.3510815105797966E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.62583473253964883</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.65385641241346582</v>
+      </c>
+      <c r="H47" s="8">
+        <v>-1.0633414364909239</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.22858617720334984</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>43312</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.12428754668617056</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.10038212204012541</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.14952851460842984</v>
+      </c>
+      <c r="E48" s="8">
+        <v>8.9713187499822156E-2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.86222351060387925</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1.0316189179722943</v>
+      </c>
+      <c r="H48" s="8">
+        <v>-0.26198067129074593</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.9101725353622192</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0.2207395619005299</v>
+      </c>
+      <c r="K48" s="8">
+        <v>4.8697575863268609E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>43319</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.70279577367577728</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0.7173698181357917</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.45648431725348926</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.89257677347183961</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0.25426225393917351</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0.18361689376263934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>43326</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.12428754668617056</v>
+      </c>
+      <c r="C50" s="8">
+        <v>9.6117723253667742E-2</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.1119033343026056</v>
+      </c>
+      <c r="E50" s="8">
+        <v>4.95067670217815E-2</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.61241171220750823</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.58603381607470462</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.35112380159566303</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.97761381615775178</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.25974171970379922</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0.12874028353680514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>43333</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.10332241822112555</v>
+      </c>
+      <c r="C51" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2.4232295601263332E-2</v>
+      </c>
+      <c r="E51" s="8">
+        <v>-0.16565589596141542</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.63907995928966954</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.62051999214587394</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.22549758847825369</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.65302718677051985</v>
+      </c>
+      <c r="J51" s="8">
+        <v>1.3100197122285433E-2</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0.30677917853875891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>43340</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.10755075433064656</v>
+      </c>
+      <c r="C52" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>-0.18097355502627929</v>
+      </c>
+      <c r="E52" s="8">
+        <v>-0.23817530542999935</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.71506586626759139</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.68611727463168726</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.87437194536021068</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.98303388362709099</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.64124254737323494</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0.29815843549485183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>43347</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.10755075433064656</v>
+      </c>
+      <c r="C53" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>-0.23960363947768409</v>
+      </c>
+      <c r="E53" s="8">
+        <v>-0.28006624713915962</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>43354</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.13665883848871732</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.11726015982747703</v>
+      </c>
+      <c r="D54" s="8">
+        <v>7.9251671192462431E-2</v>
+      </c>
+      <c r="E54" s="8">
+        <v>3.660336218587372E-2</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.52785432417944522</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0.62051999214587394</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.32295292462896669</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.87466584690530935</v>
+      </c>
+      <c r="J54" s="8">
+        <v>-2.4648377833496213</v>
+      </c>
+      <c r="K54" s="8">
+        <v>-2.2538875171307771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>43361</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.11176128686699016</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.10038212204012541</v>
+      </c>
+      <c r="D55" s="8">
+        <v>7.4959819110921436E-2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>3.1395017078735224E-2</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.48273388889897551</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.60342555878657378</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.19349485739207972</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.83158226076899766</v>
+      </c>
+      <c r="J55" s="8">
+        <v>-1.7716906027896762</v>
+      </c>
+      <c r="K55" s="8">
+        <v>-0.91015277042968235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>43368</v>
+      </c>
+      <c r="B56" s="8">
+        <v>9.4811728553216915E-2</v>
+      </c>
+      <c r="C56" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D56" s="8">
+        <v>-0.21200566427400777</v>
+      </c>
+      <c r="E56" s="8">
+        <v>-0.2296646157620908</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.62583473253964883</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.62305751707930468</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.76398837237174722</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>43375</v>
+      </c>
+      <c r="B57" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D57" s="8">
+        <v>-6.6901098766431397E-2</v>
+      </c>
+      <c r="E57" s="8">
+        <v>-7.890952493597074E-2</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="8">
+        <v>-0.3346239162963624</v>
+      </c>
+      <c r="K57" s="8">
+        <v>-0.4808201809148745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>43382</v>
+      </c>
+      <c r="B58" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>-0.13350701778735552</v>
+      </c>
+      <c r="E58" s="8">
+        <v>-0.15144886931706605</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>43389</v>
+      </c>
+      <c r="B59" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D59" s="8">
+        <v>-0.16035426782354351</v>
+      </c>
+      <c r="E59" s="8">
+        <v>-0.19142221672564461</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.36878962954975764</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.43480284635078115</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.40519102286593878</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.75311064532750238</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.47960119581681893</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0.42408522873415516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>43396</v>
+      </c>
+      <c r="B60" s="8">
+        <v>8.1908323717309134E-2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D60" s="8">
+        <v>-0.23226684941382975</v>
+      </c>
+      <c r="E60" s="8">
+        <v>-0.22459275366413056</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.43480284635078115</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.86254448637296455</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.17421954626563713</v>
+      </c>
+      <c r="K60" s="8">
+        <v>2.0526698896572243E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>43403</v>
+      </c>
+      <c r="B61" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C61" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>-4.1211612651120541E-2</v>
+      </c>
+      <c r="E61" s="8">
+        <v>-6.3001741901331954E-2</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0.39313014995021317</v>
+      </c>
+      <c r="H61" s="8">
+        <v>-0.85748938228677529</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.87466584690530935</v>
+      </c>
+      <c r="J61" s="8">
+        <v>-0.4279558560885815</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>43410</v>
+      </c>
+      <c r="B62" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C62" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D62" s="8">
+        <v>-0.2863340706841056</v>
+      </c>
+      <c r="E62" s="8">
+        <v>-0.27473290116379695</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.48273388889897551</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0.49422626682158199</v>
+      </c>
+      <c r="H62" s="8">
+        <v>-8.609000482708172E-2</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1.035677617112513</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.1501219946865765</v>
+      </c>
+      <c r="K62" s="8">
+        <v>-0.30797736807546372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>43417</v>
+      </c>
+      <c r="B63" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D63" s="8">
+        <v>-0.44848995788346574</v>
+      </c>
+      <c r="E63" s="8">
+        <v>-0.42977049900928338</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.48273388889897551</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0.55031573347262552</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0.46890683725204635</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.75989033231288117</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.9081887213458375</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0.62093182775790279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>43424</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1.9387966735974971E-2</v>
+      </c>
+      <c r="C64" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D64" s="8">
+        <v>-0.1374884430865404</v>
+      </c>
+      <c r="E64" s="8">
+        <v>-0.13281478977217312</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.36878962954975764</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.47480818096448041</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0.70918667080924336</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1.0458817872867547</v>
+      </c>
+      <c r="J64" s="8">
+        <v>-0.53090382534102398</v>
+      </c>
+      <c r="K64" s="8">
+        <v>-0.84019418182277195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>43431</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2.8562343012016236E-2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D65" s="8">
+        <v>-2.9206666554297208E-2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>-4.5931626129728315E-2</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.35139788683788842</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.41418355914804555</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.5052744814229212</v>
+      </c>
+      <c r="I65" s="8">
+        <v>1.0149514865953961</v>
+      </c>
+      <c r="J65" s="8">
+        <v>-0.71563792854036257</v>
+      </c>
+      <c r="K65" s="8">
+        <v>-0.54913942489235179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>43438</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1.9387966735974971E-2</v>
+      </c>
+      <c r="C66" s="8">
+        <v>2.5291670685055421E-2</v>
+      </c>
+      <c r="D66" s="8">
+        <v>-2.3257809034524801E-2</v>
+      </c>
+      <c r="E66" s="8">
+        <v>-4.8756486765283082E-2</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.35139788683788842</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0.49422626682158199</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0.54036580123419142</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.98842473226196736</v>
+      </c>
+      <c r="J66" s="8">
+        <v>-0.47240761865941538</v>
+      </c>
+      <c r="K66" s="8">
+        <v>-0.4808201809148745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>43445</v>
+      </c>
+      <c r="B67" s="8">
+        <v>-3.9231121324721126E-3</v>
+      </c>
+      <c r="C67" s="8">
+        <v>2.0887736053916846E-3</v>
+      </c>
+      <c r="D67" s="8">
+        <v>-7.9543908946381765E-3</v>
+      </c>
+      <c r="E67" s="8">
+        <v>-5.3008796503813474E-2</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.35139788683788842</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0.41418355914804555</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0.30856418717686701</v>
+      </c>
+      <c r="I67" s="8">
+        <v>1.0253682474536516</v>
+      </c>
+      <c r="J67" s="8">
+        <v>-0.64567933993345195</v>
+      </c>
+      <c r="K67" s="8">
+        <v>-0.68991197877343402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>43452</v>
+      </c>
+      <c r="B68" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C68" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1.514132390001113E-2</v>
+      </c>
+      <c r="E68" s="8">
+        <v>-4.1709241249880132E-2</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="8">
+        <v>-0.61901109285129075</v>
+      </c>
+      <c r="K68" s="8">
+        <v>-0.52913875818568223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>43459</v>
+      </c>
+      <c r="B69" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0.15945908281103055</v>
+      </c>
+      <c r="E69" s="8">
+        <v>8.8110919331805412E-2</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0.24017225172766413</v>
+      </c>
+      <c r="G69" s="8">
+        <v>0.25655461494446241</v>
+      </c>
+      <c r="H69" s="8">
+        <v>-0.22424034330789896</v>
+      </c>
+      <c r="I69" s="8">
+        <v>-3.5441747608912886</v>
+      </c>
+      <c r="J69" s="8">
+        <v>0.36346154590416541</v>
+      </c>
+      <c r="K69" s="8">
+        <v>5.9747412049853683E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>43467</v>
+      </c>
+      <c r="B70" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C70" s="8">
+        <v>-2.1665312402715513E-2</v>
+      </c>
+      <c r="D70" s="8">
+        <v>-7.9370088246165135E-2</v>
+      </c>
+      <c r="E70" s="8">
+        <v>-0.11906361815934859</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0.43548100404842993</v>
+      </c>
+      <c r="G70" s="8">
+        <v>0.49422626682158199</v>
+      </c>
+      <c r="H70" s="8">
+        <v>-3.5200772093122281</v>
+      </c>
+      <c r="I70" s="8">
+        <v>-0.17687893090481457</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0.3485729334104149</v>
+      </c>
+      <c r="K70" s="8">
+        <v>-0.30797736807546372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>43473</v>
+      </c>
+      <c r="B71" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C71" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1.6282225335802838E-2</v>
+      </c>
+      <c r="E71" s="8">
+        <v>-3.3317583613631761E-2</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0.36878962954975764</v>
+      </c>
+      <c r="G71" s="8">
+        <v>0.49422626682158199</v>
+      </c>
+      <c r="H71" s="8">
+        <v>-3.5200772093122281</v>
+      </c>
+      <c r="I71" s="8">
+        <v>-0.11018755640614233</v>
+      </c>
+      <c r="J71" s="8">
+        <v>-6.6942510551250903E-2</v>
+      </c>
+      <c r="K71" s="8">
+        <v>-0.44377890923452545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>43480</v>
+      </c>
+      <c r="B72" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C72" s="8">
+        <v>-3.1327223314452361E-2</v>
+      </c>
+      <c r="D72" s="8">
+        <v>3.3241365543629262E-2</v>
+      </c>
+      <c r="E72" s="8">
+        <v>-2.0860675128336476E-2</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0.25959033758476585</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0.41418355914804555</v>
+      </c>
+      <c r="H72" s="8">
+        <v>-0.45980641462066585</v>
+      </c>
+      <c r="I72" s="8">
+        <v>-1.8394266686528633</v>
+      </c>
+      <c r="J72" s="8">
+        <v>-0.4279558560885815</v>
+      </c>
+      <c r="K72" s="8">
+        <v>-0.54913942489235179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>43487</v>
+      </c>
+      <c r="B73" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C73" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D73" s="8">
+        <v>-7.0625497857413816E-2</v>
+      </c>
+      <c r="E73" s="8">
+        <v>-8.47574948183938E-2</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0.33369830973848769</v>
+      </c>
+      <c r="G73" s="8">
+        <v>0.43480284635078115</v>
+      </c>
+      <c r="H73" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0.48117692984386073</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0.27600224057557954</v>
+      </c>
+      <c r="K73" s="8">
+        <v>-0.24641947507603026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>43494</v>
+      </c>
+      <c r="B74" s="8">
+        <v>-3.7499407666076366E-2</v>
+      </c>
+      <c r="C74" s="8">
+        <v>-3.1327223314452361E-2</v>
+      </c>
+      <c r="D74" s="8">
+        <v>-1.4988417552018131E-2</v>
+      </c>
+      <c r="E74" s="8">
+        <v>-6.731519215505137E-2</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.59880606015172944</v>
+      </c>
+      <c r="G74" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H74" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0.21702535480227386</v>
+      </c>
+      <c r="J74" s="8">
+        <v>-0.10555734667903059</v>
+      </c>
+      <c r="K74" s="8">
+        <v>-0.98537619166726986</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>43501</v>
+      </c>
+      <c r="B75" s="8">
+        <v>-5.7204478745408668E-2</v>
+      </c>
+      <c r="C75" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2.4232295601263332E-2</v>
+      </c>
+      <c r="E75" s="8">
+        <v>-2.3615497807181089E-2</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0.27863853255546034</v>
+      </c>
+      <c r="G75" s="8">
+        <v>0.34964503801047442</v>
+      </c>
+      <c r="H75" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I75" s="8">
+        <v>-4.7667199424808321E-2</v>
+      </c>
+      <c r="J75" s="8">
+        <v>-0.76008969111119618</v>
+      </c>
+      <c r="K75" s="8">
+        <v>-0.91015277042968235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>43508</v>
+      </c>
+      <c r="B76" s="8">
+        <v>-3.7499407666076366E-2</v>
+      </c>
+      <c r="C76" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D76" s="8">
+        <v>-0.18654460007573467</v>
+      </c>
+      <c r="E76" s="8">
+        <v>-0.2161963987112242</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.24017225172766413</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0.34964503801047442</v>
+      </c>
+      <c r="H76" s="8">
+        <v>-0.70666649255219161</v>
+      </c>
+      <c r="I76" s="8">
+        <v>2.5357935590081475E-2</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0.24875259812820397</v>
+      </c>
+      <c r="K76" s="8">
+        <v>0.21703289068248333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>43515</v>
+      </c>
+      <c r="B77" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C77" s="8">
+        <v>-2.1665312402715513E-2</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2.8746975955789737E-2</v>
+      </c>
+      <c r="E77" s="8">
+        <v>-2.6377930503091316E-2</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0.31567980423580938</v>
+      </c>
+      <c r="G77" s="8">
+        <v>0.30418266393371696</v>
+      </c>
+      <c r="H77" s="8">
+        <v>-7.5394715710333821E-2</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0.49887650694326152</v>
+      </c>
+      <c r="J77" s="8">
+        <v>-0.74505181374665574</v>
+      </c>
+      <c r="K77" s="8">
+        <v>-0.59038238342640081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>43522</v>
+      </c>
+      <c r="B78" s="8">
+        <v>-3.7499407666076366E-2</v>
+      </c>
+      <c r="C78" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D78" s="8">
+        <v>-1.9705407430156984E-2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>-4.3114722858615152E-2</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G78" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0.19349485739207972</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0.55846860414550714</v>
+      </c>
+      <c r="J78" s="8">
+        <v>-0.18757049833986572</v>
+      </c>
+      <c r="K78" s="8">
+        <v>-0.43472907371460745</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>43529</v>
+      </c>
+      <c r="B79" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C79" s="8">
+        <v>-3.1327223314452361E-2</v>
+      </c>
+      <c r="D79" s="8">
+        <v>-5.4585672176377331E-2</v>
+      </c>
+      <c r="E79" s="8">
+        <v>-9.6557041749548836E-2</v>
+      </c>
+      <c r="F79" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G79" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0.18533154675291894</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0.55846860414550714</v>
+      </c>
+      <c r="J79" s="8">
+        <v>-0.23124556184252715</v>
+      </c>
+      <c r="K79" s="8">
+        <v>-0.28444687066526958</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>43536</v>
+      </c>
+      <c r="B80" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C80" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D80" s="8">
+        <v>-0.41283555738037009</v>
+      </c>
+      <c r="E80" s="8">
+        <v>-0.11603331281016975</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0.41922048317664967</v>
+      </c>
+      <c r="G80" s="8">
+        <v>0.45500555366830064</v>
+      </c>
+      <c r="H80" s="8">
+        <v>0.32295292462896669</v>
+      </c>
+      <c r="I80" s="8">
+        <v>0.62249046291043819</v>
+      </c>
+      <c r="J80" s="8">
+        <v>-4.4469654699192292E-2</v>
+      </c>
+      <c r="K80" s="8">
+        <v>-7.5355072806710124E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>43543</v>
+      </c>
+      <c r="B81" s="8">
+        <v>-1.3401856087015879E-2</v>
+      </c>
+      <c r="C81" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D81" s="8">
+        <v>7.818043381096354E-2</v>
+      </c>
+      <c r="E81" s="8">
+        <v>2.2538821712359881E-3</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.29733066556761284</v>
+      </c>
+      <c r="G81" s="8">
+        <v>0.55031573347262552</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0.1688022448017083</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0.84408242353322915</v>
+      </c>
+      <c r="J81" s="8">
+        <v>-0.49539713688411408</v>
+      </c>
+      <c r="K81" s="8">
+        <v>-0.53908908903885022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>43550</v>
+      </c>
+      <c r="B82" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C82" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D82" s="8">
+        <v>4.8142097441616662E-3</v>
+      </c>
+      <c r="E82" s="8">
+        <v>-6.1568049899483474E-2</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0.24017225172766413</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0.39313014995021317</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0.20159206762469914</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0.62249046291043819</v>
+      </c>
+      <c r="J82" s="8">
+        <v>-0.1457233884043653</v>
+      </c>
+      <c r="K82" s="8">
+        <v>-5.0509074220179445E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>43557</v>
+      </c>
+      <c r="B83" s="8">
+        <v>1.4769020879680536E-2</v>
+      </c>
+      <c r="C83" s="8">
+        <v>2.5291670685055421E-2</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.12426188500640259</v>
+      </c>
+      <c r="E83" s="8">
+        <v>6.4774239152570065E-2</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0.13698801549243339</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0.41418355914804555</v>
+      </c>
+      <c r="H83" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I83" s="8">
+        <v>-4.237321941451234</v>
+      </c>
+      <c r="J83" s="8">
+        <v>-0.3546245830030319</v>
+      </c>
+      <c r="K83" s="8">
+        <v>-0.39932714666369173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>43564</v>
+      </c>
+      <c r="B84" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C84" s="8">
+        <v>-7.3452586279670008E-3</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.15748084279892485</v>
+      </c>
+      <c r="E84" s="8">
+        <v>6.6036068972992093E-2</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0.29733066556761284</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0.3716239447292497</v>
+      </c>
+      <c r="H84" s="8">
+        <v>-3.2323951368604473</v>
+      </c>
+      <c r="I84" s="8">
+        <v>-2.6278840290171335</v>
+      </c>
+      <c r="J84" s="8">
+        <v>-0.40644965086761792</v>
+      </c>
+      <c r="K84" s="8">
+        <v>-0.92475156985083495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>43571</v>
+      </c>
+      <c r="B85" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C85" s="8">
+        <v>2.0693961436426038E-2</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.17417244289217801</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.10316904801521382</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G85" s="8">
+        <v>0.34964503801047442</v>
+      </c>
+      <c r="H85" s="8">
+        <v>-0.24924164551331623</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0.62249046291043819</v>
+      </c>
+      <c r="J85" s="8">
+        <v>-0.16225269035557582</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>43578</v>
+      </c>
+      <c r="B86" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0.13241687413570871</v>
+      </c>
+      <c r="E86" s="8">
+        <v>4.95067670217815E-2</v>
+      </c>
+      <c r="F86" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G86" s="8">
+        <v>0.20654419436980112</v>
+      </c>
+      <c r="H86" s="8">
+        <v>-3.9255423174203923</v>
+      </c>
+      <c r="I86" s="8">
+        <v>-4.237321941451234</v>
+      </c>
+      <c r="J86" s="8">
+        <v>-0.18757049833986572</v>
+      </c>
+      <c r="K86" s="8">
+        <v>-0.26906195182579012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>43585</v>
+      </c>
+      <c r="B87" s="8">
+        <v>3.3118159547877057E-2</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D87" s="8">
+        <v>-3.3991364677633369E-2</v>
+      </c>
+      <c r="E87" s="8">
+        <v>-0.10250944027684418</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0.22036962443148442</v>
+      </c>
+      <c r="G87" s="8">
+        <v>0.39313014995021317</v>
+      </c>
+      <c r="H87" s="8">
+        <v>-0.50781563380702632</v>
+      </c>
+      <c r="I87" s="8">
+        <v>0.3270262500166024</v>
+      </c>
+      <c r="J87" s="8">
+        <v>-7.4547109936470263E-2</v>
+      </c>
+      <c r="K87" s="8">
+        <v>-0.26906195182579012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>43592</v>
+      </c>
+      <c r="B88" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C88" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D88" s="8">
+        <v>-6.0724426874702253E-2</v>
+      </c>
+      <c r="E88" s="8">
+        <v>-7.3095555070550849E-2</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G88" s="8">
+        <v>0.49422626682158199</v>
+      </c>
+      <c r="H88" s="8">
+        <v>-0.38458299338307828</v>
+      </c>
+      <c r="I88" s="8">
+        <v>-0.11018755640614233</v>
+      </c>
+      <c r="J88" s="8">
+        <v>-6.6942510551250903E-2</v>
+      </c>
+      <c r="K88" s="8">
+        <v>-0.42576040373184715</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>43599</v>
+      </c>
+      <c r="B89" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C89" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0.13241687413570871</v>
+      </c>
+      <c r="E89" s="8">
+        <v>6.6036068972992093E-2</v>
+      </c>
+      <c r="F89" s="8">
+        <v>0.27863853255546034</v>
+      </c>
+      <c r="G89" s="8">
+        <v>0.3716239447292497</v>
+      </c>
+      <c r="H89" s="8">
+        <v>-1.5741670602569147</v>
+      </c>
+      <c r="I89" s="8">
+        <v>-0.32529893602308774</v>
+      </c>
+      <c r="J89" s="8">
+        <v>-0.48383631448303804</v>
+      </c>
+      <c r="K89" s="8">
+        <v>-0.52913875818568223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>43606</v>
+      </c>
+      <c r="B90" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C90" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D90" s="8">
+        <v>-0.15222414174029344</v>
+      </c>
+      <c r="E90" s="8">
+        <v>-0.19305487014952982</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0.43548100404842993</v>
+      </c>
+      <c r="G90" s="8">
+        <v>0.73263729026658009</v>
+      </c>
+      <c r="H90" s="8">
+        <v>-4.3978519476954851E-2</v>
+      </c>
+      <c r="I90" s="8">
+        <v>0.96117508981459188</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0.22640529943620738</v>
+      </c>
+      <c r="K90" s="8">
+        <v>-0.63339976851009161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>43613</v>
+      </c>
+      <c r="B91" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C91" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D91" s="8">
+        <v>-9.1996518618976938E-2</v>
+      </c>
+      <c r="E91" s="8">
+        <v>-0.10400309253362736</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0.49800136102976406</v>
+      </c>
+      <c r="G91" s="8">
+        <v>0.20654419436980112</v>
+      </c>
+      <c r="H91" s="8">
+        <v>-1.1529535951806111</v>
+      </c>
+      <c r="I91" s="8">
+        <v>-3.2154368539744657E-3</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0.52252624053385277</v>
+      </c>
+      <c r="K91" s="8">
+        <v>8.1487398686259566E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>43620</v>
+      </c>
+      <c r="B92" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C92" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>-0.24255349412410521</v>
+      </c>
+      <c r="E92" s="8">
+        <v>-2.6377930503091316E-2</v>
+      </c>
+      <c r="F92" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G92" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H92" s="8">
+        <v>-0.47555477158880494</v>
+      </c>
+      <c r="I92" s="8">
+        <v>0.35779790868335609</v>
+      </c>
+      <c r="J92" s="8">
+        <v>-0.55529527846518301</v>
+      </c>
+      <c r="K92" s="8">
+        <v>-0.72541866723034376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>43627</v>
+      </c>
+      <c r="B93" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C93" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G93" s="8">
+        <v>0.25655461494446241</v>
+      </c>
+      <c r="H93" s="8">
+        <v>-0.59333780724518848</v>
+      </c>
+      <c r="I93" s="8">
+        <v>0.28446663559780644</v>
+      </c>
+      <c r="J93" s="8">
+        <v>-0.44993476280735667</v>
+      </c>
+      <c r="K93" s="8">
+        <v>-0.64444960469667667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>43634</v>
+      </c>
+      <c r="B94" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C94" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.45500555366830064</v>
+      </c>
+      <c r="H94" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I94" s="8">
+        <v>9.3411398835097165E-2</v>
+      </c>
+      <c r="J94" s="8">
+        <v>-0.2957840829800984</v>
+      </c>
+      <c r="K94" s="8">
+        <v>-0.35676753224489571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>43641</v>
+      </c>
+      <c r="B95" s="8">
+        <v>0.10332241822112555</v>
+      </c>
+      <c r="C95" s="8">
+        <v>9.6117723253667742E-2</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0.10878968362932626</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0.10438337724761582</v>
+      </c>
+      <c r="F95" s="8">
+        <v>-0.16529285638050015</v>
+      </c>
+      <c r="G95" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H95" s="8">
+        <v>-1.8461007757405565</v>
+      </c>
+      <c r="I95" s="8">
+        <v>-4.237321941451234</v>
+      </c>
+      <c r="J95" s="8">
+        <v>-0.18757049833986572</v>
+      </c>
+      <c r="K95" s="8">
+        <v>-0.40806082663244642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>43648</v>
+      </c>
+      <c r="B96" s="8">
+        <v>0.11595416512702604</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0.10462841292157664</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.20391084538186433</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0.13309348313004704</v>
+      </c>
+      <c r="F96" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G96" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H96" s="8">
+        <v>-0.59333780724518848</v>
+      </c>
+      <c r="I96" s="8">
+        <v>0.47220825986110032</v>
+      </c>
+      <c r="J96" s="8">
+        <v>-0.87220698923190243</v>
+      </c>
+      <c r="K96" s="8">
+        <v>-0.70160801853662524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>43655</v>
+      </c>
+      <c r="B97" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C97" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D97" s="8">
+        <v>-6.3190519369895753E-2</v>
+      </c>
+      <c r="E97" s="8">
+        <v>-3.8904190322271492E-2</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G97" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H97" s="8">
+        <v>-0.98110333825395191</v>
+      </c>
+      <c r="I97" s="8">
+        <v>8.0166172085076523E-2</v>
+      </c>
+      <c r="J97" s="8">
+        <v>0.73383533420105973</v>
+      </c>
+      <c r="K97" s="8">
+        <v>0.44298938337330773</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>43662</v>
+      </c>
+      <c r="B98" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C98" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D98" s="8">
+        <v>-2.2072272440423032E-2</v>
+      </c>
+      <c r="E98" s="8">
+        <v>-4.4892317136540471E-3</v>
+      </c>
+      <c r="F98" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G98" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H98" s="8">
+        <v>-0.88101987969696938</v>
+      </c>
+      <c r="I98" s="8">
+        <v>2.5357935590081475E-2</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0.1501219946865765</v>
+      </c>
+      <c r="K98" s="8">
+        <v>3.1890457546887435E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>43669</v>
+      </c>
+      <c r="B99" s="8">
+        <v>9.4811728553216915E-2</v>
+      </c>
+      <c r="C99" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D99" s="8">
+        <v>-6.9382489617816817E-2</v>
+      </c>
+      <c r="E99" s="8">
+        <v>-0.14988269828432113</v>
+      </c>
+      <c r="F99" s="8">
+        <v>0.22036962443148442</v>
+      </c>
+      <c r="G99" s="8">
+        <v>0.25655461494446241</v>
+      </c>
+      <c r="H99" s="8">
+        <v>-1.7283177400841729</v>
+      </c>
+      <c r="I99" s="8">
+        <v>-0.11018755640614233</v>
+      </c>
+      <c r="J99" s="8">
+        <v>-9.8454275945365397E-4</v>
+      </c>
+      <c r="K99" s="8">
+        <v>-0.29222901110732458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>43676</v>
+      </c>
+      <c r="B100" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C100" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>-0.45030648880986363</v>
+      </c>
+      <c r="E100" s="8">
+        <v>-0.4194717468087088</v>
+      </c>
+      <c r="F100" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G100" s="8">
+        <v>0.28065216652352282</v>
+      </c>
+      <c r="H100" s="8">
+        <v>-0.11887982765007264</v>
+      </c>
+      <c r="I100" s="8">
+        <v>5.3137499697157191E-2</v>
+      </c>
+      <c r="J100" s="8">
+        <v>0.55151377740710517</v>
+      </c>
+      <c r="K100" s="8">
+        <v>0.38119366410484212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <v>43683</v>
+      </c>
+      <c r="B101" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C101" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D101" s="8">
+        <v>-0.22498349602272166</v>
+      </c>
+      <c r="E101" s="8">
+        <v>-0.15144886931706605</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0.13698801549243339</v>
+      </c>
+      <c r="G101" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H101" s="8">
+        <v>-0.35600962093902228</v>
+      </c>
+      <c r="I101" s="8">
+        <v>0.22858617720334984</v>
+      </c>
+      <c r="J101" s="8">
+        <v>-8.9932028775949663E-2</v>
+      </c>
+      <c r="K101" s="8">
+        <v>-0.42576040373184715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
+        <v>43690</v>
+      </c>
+      <c r="B102" s="8">
+        <v>8.1908323717309134E-2</v>
+      </c>
+      <c r="C102" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D102" s="8">
+        <v>-0.1428217890619031</v>
+      </c>
+      <c r="E102" s="8">
+        <v>-0.14208842655750226</v>
+      </c>
+      <c r="F102" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G102" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H102" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I102" s="8">
+        <v>-0.87002611146475983</v>
+      </c>
+      <c r="J102" s="8">
+        <v>-0.15395388754088082</v>
+      </c>
+      <c r="K102" s="8">
+        <v>-0.12037875418066531</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>43697</v>
+      </c>
+      <c r="B103" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C103" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D103" s="8">
+        <v>-0.26495921109937198</v>
+      </c>
+      <c r="E103" s="8">
+        <v>-0.21787003926925375</v>
+      </c>
+      <c r="F103" s="8">
+        <v>9.2536252921599588E-2</v>
+      </c>
+      <c r="G103" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H103" s="8">
+        <v>-0.42903475595391222</v>
+      </c>
+      <c r="I103" s="8">
+        <v>-3.26293220602678E-2</v>
+      </c>
+      <c r="J103" s="8">
+        <v>6.0826244636389519E-3</v>
+      </c>
+      <c r="K103" s="8">
+        <v>-0.15382668824820545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
+        <v>43704</v>
+      </c>
+      <c r="B104" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C104" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D104" s="8">
+        <v>-7.1870053089618635E-2</v>
+      </c>
+      <c r="E104" s="8">
+        <v>-5.5853748636044781E-2</v>
+      </c>
+      <c r="F104" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G104" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H104" s="8">
+        <v>-3.2323951368604473</v>
+      </c>
+      <c r="I104" s="8">
+        <v>-0.19427067361668376</v>
+      </c>
+      <c r="J104" s="8">
+        <v>-0.39586754153708109</v>
+      </c>
+      <c r="K104" s="8">
+        <v>-0.81352593474061063</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
+        <v>43711</v>
+      </c>
+      <c r="B105" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0.10038212204012541</v>
+      </c>
+      <c r="D105" s="8">
+        <v>-2.0888139679206413E-2</v>
+      </c>
+      <c r="E105" s="8">
+        <v>-7.1992604725192397E-3</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="8">
+        <v>-0.79004810149124272</v>
+      </c>
+      <c r="I105" s="8">
+        <v>0.35779790868335609</v>
+      </c>
+      <c r="J105" s="8">
+        <v>-0.48383631448303804</v>
+      </c>
+      <c r="K105" s="8">
+        <v>-0.74981012035450278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
+        <v>43718</v>
+      </c>
+      <c r="B106" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C106" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D106" s="8">
+        <v>-0.1617157384218646</v>
+      </c>
+      <c r="E106" s="8">
+        <v>-0.14053683586608337</v>
+      </c>
+      <c r="F106" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G106" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H106" s="8">
+        <v>-0.16434220172682995</v>
+      </c>
+      <c r="I106" s="8">
+        <v>0.36784824453685755</v>
+      </c>
+      <c r="J106" s="8">
+        <v>-0.47240761865941538</v>
+      </c>
+      <c r="K106" s="8">
+        <v>-0.70160801853662524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
+        <v>43725</v>
+      </c>
+      <c r="B107" s="8">
+        <v>0.11176128686699016</v>
+      </c>
+      <c r="C107" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D107" s="8">
+        <v>-0.17267475221158421</v>
+      </c>
+      <c r="E107" s="8">
+        <v>-0.13281478977217312</v>
+      </c>
+      <c r="F107" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G107" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H107" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I107" s="8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J107" s="8">
+        <v>2.6989309282952637E-2</v>
+      </c>
+      <c r="K107" s="8">
+        <v>-0.28444687066526958</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="9">
+        <v>43732</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
+        <v>43739</v>
+      </c>
+      <c r="B109" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C109" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D109" s="8">
+        <v>-7.9370088246165135E-2</v>
+      </c>
+      <c r="E109" s="8">
+        <v>-9.6557041749548836E-2</v>
+      </c>
+      <c r="F109" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G109" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H109" s="8">
+        <v>-0.39918179280423105</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0.24001487302697261</v>
+      </c>
+      <c r="J109" s="8">
+        <v>-0.3053535339962492</v>
+      </c>
+      <c r="K109" s="8">
+        <v>-0.33207491965452418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
+        <v>43746</v>
+      </c>
+      <c r="B110" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C110" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D110" s="8">
+        <v>8.2684446122491019E-3</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1.1618499102278834E-2</v>
+      </c>
+      <c r="F110" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G110" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H110" s="8">
+        <v>-0.27488407612665389</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0.46315842434118243</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" s="8">
+        <v>-0.63339976851009161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
+        <v>43753</v>
+      </c>
+      <c r="B111" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C111" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D111" s="8">
+        <v>5.9791597637749903E-2</v>
+      </c>
+      <c r="E111" s="8">
+        <v>4.5653197705791591E-2</v>
+      </c>
+      <c r="F111" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G111" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H111" s="8">
+        <v>-0.13005312824819779</v>
+      </c>
+      <c r="I111" s="8">
+        <v>0.52485199334652222</v>
+      </c>
+      <c r="J111" s="8">
+        <v>-0.77535716324198478</v>
+      </c>
+      <c r="K111" s="8">
+        <v>-0.88157939798562635</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="9">
+        <v>43760</v>
+      </c>
+      <c r="B112" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C112" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D112" s="8">
+        <v>-0.20060952954313818</v>
+      </c>
+      <c r="E112" s="8">
+        <v>-0.16724698619365727</v>
+      </c>
+      <c r="F112" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G112" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H112" s="8">
+        <v>-1.4406356676323921</v>
+      </c>
+      <c r="I112" s="8">
+        <v>-2.1578803997713978</v>
+      </c>
+      <c r="J112" s="8">
+        <v>0.6957024645056159</v>
+      </c>
+      <c r="K112" s="8">
+        <v>0.55952319962925934</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="9">
+        <v>43767</v>
+      </c>
+      <c r="B113" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C113" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D113" s="8">
+        <v>-0.39375431930494231</v>
+      </c>
+      <c r="E113" s="8">
+        <v>-0.36174427815342669</v>
+      </c>
+      <c r="F113" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G113" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H113" s="8">
+        <v>9.9809373314756866E-2</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0.16939730581301923</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0.66702666452894954</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0.52562164795357802</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="9">
+        <v>43774</v>
+      </c>
+      <c r="B114" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C114" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D114" s="8">
+        <v>-0.24847943739165254</v>
+      </c>
+      <c r="E114" s="8">
+        <v>-0.3053383502398746</v>
+      </c>
+      <c r="F114" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G114" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0.20159206762469914</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0.26248772887903121</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0.97718159283278905</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0.76110257302762852</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="9">
+        <v>43781</v>
+      </c>
+      <c r="B115" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C115" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D115" s="8">
+        <v>-4.2420072012688916E-2</v>
+      </c>
+      <c r="E115" s="8">
+        <v>-2.0860675128336476E-2</v>
+      </c>
+      <c r="F115" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G115" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0.19349485739207972</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0.66795283698719554</v>
+      </c>
+      <c r="J115" s="8">
+        <v>-0.2957840829800984</v>
+      </c>
+      <c r="K115" s="8">
+        <v>-0.44377890923452545</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="9">
+        <v>43788</v>
+      </c>
+      <c r="B116" s="8">
+        <v>2.8562343012016236E-2</v>
+      </c>
+      <c r="C116" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D116" s="8">
+        <v>4.8142097441616662E-3</v>
+      </c>
+      <c r="E116" s="8">
+        <v>-3.1369664636404838E-3</v>
+      </c>
+      <c r="F116" s="8">
+        <v>9.2536252921599588E-2</v>
+      </c>
+      <c r="G116" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0.27915030197057372</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0.69715199167945785</v>
+      </c>
+      <c r="J116" s="8">
+        <v>8.7208169276007441E-2</v>
+      </c>
+      <c r="K116" s="8">
+        <v>2.0526698896572243E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="9">
+        <v>43795</v>
+      </c>
+      <c r="B117" s="8">
+        <v>1.4769020879680536E-2</v>
+      </c>
+      <c r="C117" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D117" s="8">
+        <v>-4.0004611901085146E-2</v>
+      </c>
+      <c r="E117" s="8">
+        <v>-3.7504609967848213E-2</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0.41922048317664967</v>
+      </c>
+      <c r="G117" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0.25650782522081395</v>
+      </c>
+      <c r="I117" s="8">
+        <v>0.61470832246838325</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="9">
+        <v>43802</v>
+      </c>
+      <c r="B118" s="8">
+        <v>2.3985675984604538E-2</v>
+      </c>
+      <c r="C118" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D118" s="8">
+        <v>-0.15492684608817842</v>
+      </c>
+      <c r="E118" s="8">
+        <v>-0.13589645630958125</v>
+      </c>
+      <c r="F118" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G118" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0.26411242460603312</v>
+      </c>
+      <c r="I118" s="8">
+        <v>0.62249046291043819</v>
+      </c>
+      <c r="J118" s="8">
+        <v>-0.27691559867571564</v>
+      </c>
+      <c r="K118" s="8">
+        <v>-0.49986837588556898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="9">
+        <v>43809</v>
+      </c>
+      <c r="B119" s="8">
+        <v>5.4666282173668011E-3</v>
+      </c>
+      <c r="C119" s="8">
+        <v>2.0693961436426038E-2</v>
+      </c>
+      <c r="D119" s="8">
+        <v>-8.4401545401532302E-2</v>
+      </c>
+      <c r="E119" s="8">
+        <v>-7.3095555070550849E-2</v>
+      </c>
+      <c r="F119" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G119" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0.42473561893890893</v>
+      </c>
+      <c r="I119" s="8">
+        <v>0.76662436449422522</v>
+      </c>
+      <c r="J119" s="8">
+        <v>-0.12143069583532071</v>
+      </c>
+      <c r="K119" s="8">
+        <v>-2.6265462610186686E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="9">
+        <v>43816</v>
+      </c>
+      <c r="B120" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C120" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D120" s="8">
+        <v>-0.4093390503216407</v>
+      </c>
+      <c r="E120" s="8">
+        <v>-0.35981191040237287</v>
+      </c>
+      <c r="F120" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G120" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0.25650782522081395</v>
+      </c>
+      <c r="I120" s="8">
+        <v>0.40706895769013884</v>
+      </c>
+      <c r="J120" s="8">
+        <v>0.38779364656369614</v>
+      </c>
+      <c r="K120" s="8">
+        <v>0.12359888403638643</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="9">
+        <v>43823</v>
+      </c>
+      <c r="B121" s="8">
+        <v>-3.9231121324721126E-3</v>
+      </c>
+      <c r="C121" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D121" s="8">
+        <v>-0.15899464830750409</v>
+      </c>
+      <c r="E121" s="8">
+        <v>-0.12515191702660394</v>
+      </c>
+      <c r="F121" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G121" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0.23334076593927944</v>
+      </c>
+      <c r="I121" s="8">
+        <v>0.58295962415380298</v>
+      </c>
+      <c r="J121" s="8">
+        <v>-0.47240761865941538</v>
+      </c>
+      <c r="K121" s="8">
+        <v>-0.49029892486941834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="9">
+        <v>43830</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C122" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D122" s="8">
+        <v>0.17319825869433453</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0.21935772573836981</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0.38588406290905775</v>
+      </c>
+      <c r="G122" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0.56309405231174747</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0.59895996550024411</v>
+      </c>
+      <c r="J122" s="8">
+        <v>0.70624737768223078</v>
+      </c>
+      <c r="K122" s="8">
+        <v>0.61148293855997038</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="9">
+        <v>43837</v>
+      </c>
+      <c r="B123" s="8">
+        <v>-8.6512533284179554E-3</v>
+      </c>
+      <c r="C123" s="8">
+        <v>2.0887736053916846E-3</v>
+      </c>
+      <c r="D123" s="8">
+        <v>-0.21343935627585636</v>
+      </c>
+      <c r="E123" s="8">
+        <v>-0.17203550292545436</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="9">
+        <v>43844</v>
+      </c>
+      <c r="B124" s="8">
+        <v>-5.7204478745408668E-2</v>
+      </c>
+      <c r="C124" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D124" s="8">
+        <v>-0.3801022301366152</v>
+      </c>
+      <c r="E124" s="8">
+        <v>-0.31083790580591325</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G124" s="8">
+        <v>0.47480818096448041</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0.25650782522081395</v>
+      </c>
+      <c r="I124" s="8">
+        <v>0.49887650694326152</v>
+      </c>
+      <c r="J124" s="8">
+        <v>0.44388311321473972</v>
+      </c>
+      <c r="K124" s="8">
+        <v>0.10276479713354446</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="9">
+        <v>43851</v>
+      </c>
+      <c r="B125" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C125" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D125" s="8">
+        <v>-0.22208494326871048</v>
+      </c>
+      <c r="E125" s="8">
+        <v>-0.19469019349026059</v>
+      </c>
+      <c r="F125" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G125" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0.52880497883311539</v>
+      </c>
+      <c r="I125" s="8">
+        <v>0.86254448637296455</v>
+      </c>
+      <c r="J125" s="8">
+        <v>-0.55529527846518301</v>
+      </c>
+      <c r="K125" s="8">
+        <v>-0.95460453300051606</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="9">
+        <v>43858</v>
+      </c>
+      <c r="B126" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C126" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D126" s="8">
+        <v>-0.1617157384218646</v>
+      </c>
+      <c r="E126" s="8">
+        <v>-0.14831897630813839</v>
+      </c>
+      <c r="F126" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G126" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0.33007039239783054</v>
+      </c>
+      <c r="I126" s="8">
+        <v>0.63787538174991765</v>
+      </c>
+      <c r="J126" s="8">
+        <v>-0.56771779846374004</v>
+      </c>
+      <c r="K126" s="8">
+        <v>-0.84019418182277195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="9">
+        <v>43865</v>
+      </c>
+      <c r="B127" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C127" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D127" s="8">
+        <v>-3.6392326215171647E-2</v>
+      </c>
+      <c r="E127" s="8">
+        <v>-3.3317583613631761E-2</v>
+      </c>
+      <c r="F127" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G127" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H127" s="8">
+        <v>0.38525680796512141</v>
+      </c>
+      <c r="I127" s="8">
+        <v>0.71143794892693435</v>
+      </c>
+      <c r="J127" s="8">
+        <v>-0.63225631960131146</v>
+      </c>
+      <c r="K127" s="8">
+        <v>-0.54913942489235179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>43872</v>
+      </c>
+      <c r="B128" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C128" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D128" s="8">
+        <v>1.8992404704776676E-4</v>
+      </c>
+      <c r="E128" s="8">
+        <v>-2.3615497807181089E-2</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G128" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0.16043399513119164</v>
+      </c>
+      <c r="I128" s="8">
+        <v>0.56669910328202266</v>
+      </c>
+      <c r="J128" s="8">
+        <v>-0.46110806340548199</v>
+      </c>
+      <c r="K128" s="8">
+        <v>-0.96987200513130445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>43879</v>
+      </c>
+      <c r="B129" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C129" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D129" s="8">
+        <v>-0.1977806733426605</v>
+      </c>
+      <c r="E129" s="8">
+        <v>-0.16089775851499846</v>
+      </c>
+      <c r="F129" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G129" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0.28658528045809184</v>
+      </c>
+      <c r="I129" s="8">
+        <v>0.56669910328202266</v>
+      </c>
+      <c r="J129" s="8">
+        <v>5.420187280783733E-2</v>
+      </c>
+      <c r="K129" s="8">
+        <v>-6.2854910042478659E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>43886</v>
+      </c>
+      <c r="B130" s="8">
+        <v>-3.2633218014903355E-2</v>
+      </c>
+      <c r="C130" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D130" s="8">
+        <v>-0.70578542076700979</v>
+      </c>
+      <c r="E130" s="8">
+        <v>-0.69628414702358576</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G130" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0.20159206762469914</v>
+      </c>
+      <c r="I130" s="8">
+        <v>0.26248772887903121</v>
+      </c>
+      <c r="J130" s="8">
+        <v>1.0316697781168587</v>
+      </c>
+      <c r="K130" s="8">
+        <v>0.61779210775323523</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>43893</v>
+      </c>
+      <c r="B131" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C131" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D131" s="8">
+        <v>-0.21057402480256987</v>
+      </c>
+      <c r="E131" s="8">
+        <v>-0.16884061202893513</v>
+      </c>
+      <c r="F131" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G131" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0.13490069312602695</v>
+      </c>
+      <c r="I131" s="8">
+        <v>0.46315842434118243</v>
+      </c>
+      <c r="J131" s="8">
+        <v>0.26519132447136384</v>
+      </c>
+      <c r="K131" s="8">
+        <v>9.7487740032700637E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>43900</v>
+      </c>
+      <c r="B132" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C132" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D132" s="8">
+        <v>-0.35499630900553875</v>
+      </c>
+      <c r="E132" s="8">
+        <v>-0.34829546834081387</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G132" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H132" s="8">
+        <v>9.9809373314756866E-2</v>
+      </c>
+      <c r="I132" s="8">
+        <v>0.29527755170202208</v>
+      </c>
+      <c r="J132" s="8">
+        <v>0.20354716136015705</v>
+      </c>
+      <c r="K132" s="8">
+        <v>5.9747412049853683E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
+        <v>43907</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
+        <v>43914</v>
+      </c>
+      <c r="B134" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C134" s="8">
+        <v>-3.1327223314452361E-2</v>
+      </c>
+      <c r="D134" s="8">
+        <v>-0.2925260409320265</v>
+      </c>
+      <c r="E134" s="8">
+        <v>-0.28901885841127345</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G134" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H134" s="8">
+        <v>0.40519102286593878</v>
+      </c>
+      <c r="I134" s="8">
+        <v>0.84408242353322915</v>
+      </c>
+      <c r="J134" s="8">
+        <v>-0.76008969111119618</v>
+      </c>
+      <c r="K134" s="8">
+        <v>-1.3830591593333794</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="9">
+        <v>43921</v>
+      </c>
+      <c r="B135" s="8">
+        <v>-3.9231121324721126E-3</v>
+      </c>
+      <c r="C135" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D135" s="8">
+        <v>-9.8370026491069074E-2</v>
+      </c>
+      <c r="E135" s="8">
+        <v>-9.5074461789326034E-2</v>
+      </c>
+      <c r="F135" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G135" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H135" s="8">
+        <v>0.19349485739207972</v>
+      </c>
+      <c r="I135" s="8">
+        <v>0.68993174370597088</v>
+      </c>
+      <c r="J135" s="8">
+        <v>-0.5802965806706003</v>
+      </c>
+      <c r="K135" s="8">
+        <v>-0.81352593474061063</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B136" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C136" s="8">
+        <v>-7.3452586279670008E-3</v>
+      </c>
+      <c r="D136" s="8">
+        <v>-6.9382489617816817E-2</v>
+      </c>
+      <c r="E136" s="8">
+        <v>-8.3292293091065936E-2</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G136" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0.23334076593927944</v>
+      </c>
+      <c r="I136" s="8">
+        <v>0.58295962415380298</v>
+      </c>
+      <c r="J136" s="8">
+        <v>-0.6730783141215666</v>
+      </c>
+      <c r="K136" s="8">
+        <v>-0.89576403297758278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B137" s="8">
+        <v>1.9387966735974971E-2</v>
+      </c>
+      <c r="C137" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D137" s="8">
+        <v>-6.566270851528494E-2</v>
+      </c>
+      <c r="E137" s="8">
+        <v>-8.0368314399630575E-2</v>
+      </c>
+      <c r="F137" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G137" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H137" s="8">
+        <v>0.26411242460603312</v>
+      </c>
+      <c r="I137" s="8">
+        <v>0.58295962415380298</v>
+      </c>
+      <c r="J137" s="8">
+        <v>-0.61901109285129075</v>
+      </c>
+      <c r="K137" s="8">
+        <v>-0.85379983387855063</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="9">
+        <v>43942</v>
+      </c>
+      <c r="B138" s="8">
+        <v>1.4769020879680536E-2</v>
+      </c>
+      <c r="C138" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D138" s="8">
+        <v>6.8487304605303986E-2</v>
+      </c>
+      <c r="E138" s="8">
+        <v>3.5303816843788041E-2</v>
+      </c>
+      <c r="F138" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G138" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H138" s="8">
+        <v>0.28658528045809184</v>
+      </c>
+      <c r="I138" s="8">
+        <v>0.6826589843768911</v>
+      </c>
+      <c r="J138" s="8">
+        <v>-0.53090382534102398</v>
+      </c>
+      <c r="K138" s="8">
+        <v>-0.64444960469667667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="9">
+        <v>43949</v>
+      </c>
+      <c r="B139" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D139" s="8">
+        <v>-0.26798493201590906</v>
+      </c>
+      <c r="E139" s="8">
+        <v>7.2321444787952827E-2</v>
+      </c>
+      <c r="F139" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="8">
+        <v>0.21759240897114038</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J139" s="8">
+        <v>-0.56771779846374004</v>
+      </c>
+      <c r="K139" s="8">
+        <v>-0.65562290529480183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="9">
+        <v>43956</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2.3985675984604538E-2</v>
+      </c>
+      <c r="C140" s="8">
+        <v>2.5291670685055421E-2</v>
+      </c>
+      <c r="D140" s="8">
+        <v>9.3074326149697933E-2</v>
+      </c>
+      <c r="E140" s="8">
+        <v>-0.15144886931706605</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G140" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H140" s="8">
+        <v>7.2658384248806079E-2</v>
+      </c>
+      <c r="I140" s="8">
+        <v>0.49887650694326152</v>
+      </c>
+      <c r="J140" s="8">
+        <v>-0.3346239162963624</v>
+      </c>
+      <c r="K140" s="8">
+        <v>-0.57991108355910559</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="9">
+        <v>43963</v>
+      </c>
+      <c r="B141" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C141" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0.14251797012221259</v>
+      </c>
+      <c r="E141" s="8">
+        <v>9.9517187596442874E-2</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="8">
+        <v>0.71143794892693435</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K141" s="8">
+        <v>-0.4808201809148745</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="9">
+        <v>43970</v>
+      </c>
+      <c r="B142" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C142" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0.14952851460842984</v>
+      </c>
+      <c r="E142" s="8">
+        <v>9.707518394089111E-2</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J142" s="8">
+        <v>-0.65928499198923074</v>
+      </c>
+      <c r="K142" s="8">
+        <v>-0.91015277042968235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="9">
+        <v>43977</v>
+      </c>
+      <c r="B143" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C143" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0.19345944383415661</v>
+      </c>
+      <c r="E143" s="8">
+        <v>0.13897239482982324</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J143" s="8">
+        <v>-0.79086134977794997</v>
+      </c>
+      <c r="K143" s="8">
+        <v>-1.0171248899818501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="9">
+        <v>43984</v>
+      </c>
+      <c r="B144" s="8">
+        <v>5.5591015399935537E-2</v>
+      </c>
+      <c r="C144" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D144" s="8">
+        <v>0.18771230157858865</v>
+      </c>
+      <c r="E144" s="8">
+        <v>0.13544919682250631</v>
+      </c>
+      <c r="F144" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G144" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H144" s="8">
+        <v>-0.11887982765007264</v>
+      </c>
+      <c r="I144" s="8">
+        <v>0.46315842434118243</v>
+      </c>
+      <c r="J144" s="8">
+        <v>-0.70124919108826289</v>
+      </c>
+      <c r="K144" s="8">
+        <v>-0.56954829652355887</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="9">
+        <v>43991</v>
+      </c>
+      <c r="B145" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C145" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0.19345944383415661</v>
+      </c>
+      <c r="E145" s="8">
+        <v>0.15178561614219974</v>
+      </c>
+      <c r="F145" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G145" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H145" s="8">
+        <v>-0.13005312824819779</v>
+      </c>
+      <c r="I145" s="8">
+        <v>0.48117692984386073</v>
+      </c>
+      <c r="J145" s="8">
+        <v>-0.88930142259120259</v>
+      </c>
+      <c r="K145" s="8">
+        <v>-0.70160801853662524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="9">
+        <v>43998</v>
+      </c>
+      <c r="B146" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C146" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0.16929200372726944</v>
+      </c>
+      <c r="E146" s="8">
+        <v>0.14248322347988615</v>
+      </c>
+      <c r="F146" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G146" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H146" s="8">
+        <v>-5.4341306512501492E-2</v>
+      </c>
+      <c r="I146" s="8">
+        <v>0.63021250900434855</v>
+      </c>
+      <c r="J146" s="8">
+        <v>-0.74505181374665574</v>
+      </c>
+      <c r="K146" s="8">
+        <v>-1.1739673614748198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="9">
+        <v>44007</v>
+      </c>
+      <c r="B147" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C147" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0.15450612568218211</v>
+      </c>
+      <c r="E147" s="8">
+        <v>0.13309348313004704</v>
+      </c>
+      <c r="F147" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G147" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H147" s="8">
+        <v>-0.28795615769400656</v>
+      </c>
+      <c r="I147" s="8">
+        <v>0.36784824453685755</v>
+      </c>
+      <c r="J147" s="8">
+        <v>-0.28630533902555461</v>
+      </c>
+      <c r="K147" s="8">
+        <v>-0.34846872943020069</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B148" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C148" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0.16143341711474837</v>
+      </c>
+      <c r="E148" s="8">
+        <v>8.6011764396635756E-2</v>
+      </c>
+      <c r="F148" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G148" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H148" s="8">
+        <v>-0.27488407612665389</v>
+      </c>
+      <c r="I148" s="8">
+        <v>0.39740704677840194</v>
+      </c>
+      <c r="J148" s="8">
+        <v>-0.2957840829800984</v>
+      </c>
+      <c r="K148" s="8">
+        <v>-0.27672482457135916</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="9">
+        <v>44019</v>
+      </c>
+      <c r="B149" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C149" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0.12118653660615486</v>
+      </c>
+      <c r="E149" s="8">
+        <v>8.8480901453557012E-2</v>
+      </c>
+      <c r="F149" s="8">
+        <v>9.2536252921599588E-2</v>
+      </c>
+      <c r="G149" s="8">
+        <v>0.84704764144432432</v>
+      </c>
+      <c r="H149" s="8">
+        <v>-0.23666286330645606</v>
+      </c>
+      <c r="I149" s="8">
+        <v>0.81892386389707417</v>
+      </c>
+      <c r="J149" s="8">
+        <v>0.3077509388901597</v>
+      </c>
+      <c r="K149" s="8">
+        <v>-0.16752553260636732</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="9">
+        <v>44026</v>
+      </c>
+      <c r="B150" s="8">
+        <v>9.4811728553216915E-2</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0.10038212204012541</v>
+      </c>
+      <c r="D150" s="8">
+        <v>-1.3812638463006136E-2</v>
+      </c>
+      <c r="E150" s="8">
+        <v>-6.1568049899483474E-2</v>
+      </c>
+      <c r="F150" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G150" s="8">
+        <v>-5.5820070097690057E-2</v>
+      </c>
+      <c r="H150" s="8">
+        <v>-0.27488407612665389</v>
+      </c>
+      <c r="I150" s="8">
+        <v>0.18151866634536404</v>
+      </c>
+      <c r="J150" s="8">
+        <v>-0.53090382534102398</v>
+      </c>
+      <c r="K150" s="8">
+        <v>-0.60096449275693786</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="9">
+        <v>44033</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="9">
+        <v>44040</v>
+      </c>
+      <c r="B152" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C152" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D152" s="8">
+        <v>-0.4835812776947358</v>
+      </c>
+      <c r="E152" s="8">
+        <v>-0.44647234862721463</v>
+      </c>
+      <c r="F152" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G152" s="8">
+        <v>-0.23814162689164467</v>
+      </c>
+      <c r="H152" s="8">
+        <v>-0.59333780724518848</v>
+      </c>
+      <c r="I152" s="8">
+        <v>-0.68197387996182024</v>
+      </c>
+      <c r="J152" s="8">
+        <v>0.6778766805530152</v>
+      </c>
+      <c r="K152" s="8">
+        <v>0.4725118226396296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="9">
+        <v>44047</v>
+      </c>
+      <c r="B153" s="8">
+        <v>9.9076127339674344E-2</v>
+      </c>
+      <c r="C153" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D153" s="8">
+        <v>-0.26950123253387293</v>
+      </c>
+      <c r="E153" s="8">
+        <v>-0.25367949196596462</v>
+      </c>
+      <c r="F153" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G153" s="8">
+        <v>0.51327446179227654</v>
+      </c>
+      <c r="H153" s="8">
+        <v>-0.49155511293524617</v>
+      </c>
+      <c r="I153" s="8">
+        <v>-0.22998875621876289</v>
+      </c>
+      <c r="J153" s="8">
+        <v>-0.44993476280735667</v>
+      </c>
+      <c r="K153" s="8">
+        <v>-0.55929179635636983</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="9">
+        <v>44054</v>
+      </c>
+      <c r="B154" s="8">
+        <v>9.0529066761216151E-2</v>
+      </c>
+      <c r="C154" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D154" s="8">
+        <v>-5.2140683183310797E-2</v>
+      </c>
+      <c r="E154" s="8">
+        <v>-5.5853748636044781E-2</v>
+      </c>
+      <c r="F154" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G154" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H154" s="8">
+        <v>-0.64839758442821593</v>
+      </c>
+      <c r="I154" s="8">
+        <v>-9.4187215059701193E-2</v>
+      </c>
+      <c r="J154" s="8">
+        <v>-0.85539987091552117</v>
+      </c>
+      <c r="K154" s="8">
+        <v>-0.98537619166726986</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="9">
+        <v>44061</v>
+      </c>
+      <c r="B155" s="8">
+        <v>0.10755075433064656</v>
+      </c>
+      <c r="C155" s="8">
+        <v>0.10038212204012541</v>
+      </c>
+      <c r="D155" s="8">
+        <v>-1.02935732478103E-2</v>
+      </c>
+      <c r="E155" s="8">
+        <v>-9.9166534490191891E-3</v>
+      </c>
+      <c r="F155" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G155" s="8">
+        <v>-5.5820070097690057E-2</v>
+      </c>
+      <c r="H155" s="8">
+        <v>-0.28795615769400656</v>
+      </c>
+      <c r="I155" s="8">
+        <v>0.13212591101578758</v>
+      </c>
+      <c r="J155" s="8">
+        <v>-1.0377214277094757</v>
+      </c>
+      <c r="K155" s="8">
+        <v>-1.1369260897944709</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="9">
+        <v>44068</v>
+      </c>
+      <c r="B156" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C156" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D156" s="8">
+        <v>-0.39547401018446909</v>
+      </c>
+      <c r="E156" s="8">
+        <v>-0.3734175624581515</v>
+      </c>
+      <c r="F156" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G156" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H156" s="8">
+        <v>-0.3701942559309786</v>
+      </c>
+      <c r="I156" s="8">
+        <v>-0.34550164334060723</v>
+      </c>
+      <c r="J156" s="8">
+        <v>-0.20481230477437187</v>
+      </c>
+      <c r="K156" s="8">
+        <v>-0.28444687066526958</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="9">
+        <v>44075</v>
+      </c>
+      <c r="B157" s="8">
+        <v>9.4811728553216915E-2</v>
+      </c>
+      <c r="C157" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D157" s="8">
+        <v>-0.52385517683267591</v>
+      </c>
+      <c r="E157" s="8">
+        <v>-0.58150863243115758</v>
+      </c>
+      <c r="F157" s="8">
+        <v>9.2536252921599588E-2</v>
+      </c>
+      <c r="G157" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H157" s="8">
+        <v>0.14348443681741846</v>
+      </c>
+      <c r="I157" s="8">
+        <v>-0.83612455978907851</v>
+      </c>
+      <c r="J157" s="8">
+        <v>1.1661476923454122</v>
+      </c>
+      <c r="K157" s="8">
+        <v>0.94251545188536523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="9">
+        <v>44083</v>
+      </c>
+      <c r="B158" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C158" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D158" s="8">
+        <v>-0.5699093611832331</v>
+      </c>
+      <c r="E158" s="8">
+        <v>-0.47856066317871526</v>
+      </c>
+      <c r="F158" s="8">
+        <v>-0.22591747819693508</v>
+      </c>
+      <c r="G158" s="8">
+        <v>-0.27896362141189973</v>
+      </c>
+      <c r="H158" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I158" s="8">
+        <v>-0.38717433974117527</v>
+      </c>
+      <c r="J158" s="8">
+        <v>0.83715294822908581</v>
+      </c>
+      <c r="K158" s="8">
+        <v>0.49053032814230785</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="9">
+        <v>44089</v>
+      </c>
+      <c r="B159" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C159" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D159" s="8">
+        <v>-0.22498349602272166</v>
+      </c>
+      <c r="E159" s="8">
+        <v>-0.21119221812664832</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I159" s="8">
+        <v>0.28446663559780644</v>
+      </c>
+      <c r="J159" s="8">
+        <v>-0.3546245830030319</v>
+      </c>
+      <c r="K159" s="8">
+        <v>-0.4808201809148745</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="9">
+        <v>44096</v>
+      </c>
+      <c r="B160" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C160" s="8">
+        <v>7.8875916819161757E-2</v>
+      </c>
+      <c r="D160" s="8">
+        <v>-0.40065089836400281</v>
+      </c>
+      <c r="E160" s="8">
+        <v>-0.3714625276223481</v>
+      </c>
+      <c r="F160" s="8">
+        <v>-0.25766617651151535</v>
+      </c>
+      <c r="G160" s="8">
+        <v>-0.27896362141189973</v>
+      </c>
+      <c r="H160" s="8">
+        <v>-3.5689811390782391E-3</v>
+      </c>
+      <c r="I160" s="8">
+        <v>0.31655495014930701</v>
+      </c>
+      <c r="J160" s="8">
+        <v>-0.80660970674608912</v>
+      </c>
+      <c r="K160" s="8">
+        <v>-0.98537619166726986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="9">
+        <v>44103</v>
+      </c>
+      <c r="B161" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C161" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D161" s="8">
+        <v>-0.39547401018446909</v>
+      </c>
+      <c r="E161" s="8">
+        <v>-0.38127614907067264</v>
+      </c>
+      <c r="F161" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G161" s="8">
+        <v>-0.19892091373836329</v>
+      </c>
+      <c r="H161" s="8">
+        <v>-2.3569647845747756E-2</v>
+      </c>
+      <c r="I161" s="8">
+        <v>-0.24833789488695943</v>
+      </c>
+      <c r="J161" s="8">
+        <v>0.19775004367583121</v>
+      </c>
+      <c r="K161" s="8">
+        <v>0.1787507041114664</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="9">
+        <v>44110</v>
+      </c>
+      <c r="B162" s="8">
+        <v>5.5591015399935537E-2</v>
+      </c>
+      <c r="C162" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D162" s="8">
+        <v>-0.2863340706841056</v>
+      </c>
+      <c r="E162" s="8">
+        <v>-0.27296142151541491</v>
+      </c>
+      <c r="F162" s="8">
+        <v>0.13698801549243339</v>
+      </c>
+      <c r="G162" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H162" s="8">
+        <v>0.14348443681741846</v>
+      </c>
+      <c r="I162" s="8">
+        <v>0.251314428280906</v>
+      </c>
+      <c r="J162" s="8">
+        <v>-0.37503345463423898</v>
+      </c>
+      <c r="K162" s="8">
+        <v>-0.44377890923452545</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="9">
+        <v>44117</v>
+      </c>
+      <c r="B163" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C163" s="8">
+        <v>7.0142236850407297E-2</v>
+      </c>
+      <c r="D163" s="8">
+        <v>-6.0724426874702253E-2</v>
+      </c>
+      <c r="E163" s="8">
+        <v>-4.3114722858615152E-2</v>
+      </c>
+      <c r="F163" s="8">
+        <v>-0.19514581953018126</v>
+      </c>
+      <c r="G163" s="8">
+        <v>-0.16118058575551619</v>
+      </c>
+      <c r="H163" s="8">
+        <v>9.9809373314756866E-2</v>
+      </c>
+      <c r="I163" s="8">
+        <v>0.47220825986110032</v>
+      </c>
+      <c r="J163" s="8">
+        <v>-0.44993476280735667</v>
+      </c>
+      <c r="K163" s="8">
+        <v>-0.68991197877343402</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="9">
+        <v>44124</v>
+      </c>
+      <c r="B164" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C164" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D164" s="8">
+        <v>-0.34185983110016882</v>
+      </c>
+      <c r="E164" s="8">
+        <v>-0.32752040576584929</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" s="8">
+        <v>-0.16118058575551619</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="8">
+        <v>0.45402594077790992</v>
+      </c>
+      <c r="J164" s="8">
+        <v>-0.49539713688411408</v>
+      </c>
+      <c r="K164" s="8">
+        <v>-0.62247069797790122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="9">
+        <v>44131</v>
+      </c>
+      <c r="B165" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C165" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D165" s="8">
+        <v>-0.57607587609889699</v>
+      </c>
+      <c r="E165" s="8">
+        <v>-0.52074227721500987</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J165" s="8">
+        <v>1.0833417886611796</v>
+      </c>
+      <c r="K165" s="8">
+        <v>0.80638327756078509</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="9">
+        <v>44139</v>
+      </c>
+      <c r="B166" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C166" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D166" s="8">
+        <v>-0.1712982895028608</v>
+      </c>
+      <c r="E166" s="8">
+        <v>-0.15458858932173369</v>
+      </c>
+      <c r="F166" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G166" s="8">
+        <v>-0.16118058575551619</v>
+      </c>
+      <c r="H166" s="8">
+        <v>-0.16434220172682995</v>
+      </c>
+      <c r="I166" s="8">
+        <v>0.58295962415380298</v>
+      </c>
+      <c r="J166" s="8">
+        <v>3.3862188570714609E-2</v>
+      </c>
+      <c r="K166" s="8">
+        <v>-0.7134424761836281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B167" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C167" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D167" s="8">
+        <v>-0.68948703903389041</v>
+      </c>
+      <c r="E167" s="8">
+        <v>-0.6539497831970249</v>
+      </c>
+      <c r="F167" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G167" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H167" s="8">
+        <v>0.487255975920243</v>
+      </c>
+      <c r="I167" s="8">
+        <v>0.10648348040244994</v>
+      </c>
+      <c r="J167" s="8">
+        <v>0.78035534983595278</v>
+      </c>
+      <c r="K167" s="8">
+        <v>0.50822990524170886</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B168" s="8">
+        <v>2.8562343012016236E-2</v>
+      </c>
+      <c r="C168" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D168" s="8">
+        <v>-0.16718023289394349</v>
+      </c>
+      <c r="E168" s="8">
+        <v>-0.10549897912521022</v>
+      </c>
+      <c r="F168" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G168" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H168" s="8">
+        <v>0.17710104761640344</v>
+      </c>
+      <c r="I168" s="8">
+        <v>0.56669910328202266</v>
+      </c>
+      <c r="J168" s="8">
+        <v>-0.26761320601340205</v>
+      </c>
+      <c r="K168" s="8">
+        <v>-0.37357465056127692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B169" s="8">
+        <v>3.3118159547877057E-2</v>
+      </c>
+      <c r="C169" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D169" s="8">
+        <v>-0.2619426175599463</v>
+      </c>
+      <c r="E169" s="8">
+        <v>-0.21285749744570956</v>
+      </c>
+      <c r="F169" s="8">
+        <v>-0.16529285638050015</v>
+      </c>
+      <c r="G169" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H169" s="8">
+        <v>0.21759240897114038</v>
+      </c>
+      <c r="I169" s="8">
+        <v>0.47220825986110032</v>
+      </c>
+      <c r="J169" s="8">
+        <v>-0.44993476280735667</v>
+      </c>
+      <c r="K169" s="8">
+        <v>-0.68991197877343402</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="9">
+        <v>44166</v>
+      </c>
+      <c r="B170" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C170" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D170" s="8">
+        <v>-0.1428217890619031</v>
+      </c>
+      <c r="E170" s="8">
+        <v>-8.9166025103159685E-2</v>
+      </c>
+      <c r="F170" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G170" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H170" s="8">
+        <v>0.51710893906992417</v>
+      </c>
+      <c r="I170" s="8">
+        <v>0.78655857939504248</v>
+      </c>
+      <c r="J170" s="8">
+        <v>-0.71563792854036257</v>
+      </c>
+      <c r="K170" s="8">
+        <v>-0.85379983387855063</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="9">
+        <v>44173</v>
+      </c>
+      <c r="B171" s="8">
+        <v>-8.6512533284179554E-3</v>
+      </c>
+      <c r="C171" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D171" s="8">
+        <v>-9.1232980996200606E-3</v>
+      </c>
+      <c r="E171" s="8">
+        <v>1.9576100775592929E-2</v>
+      </c>
+      <c r="F171" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G171" s="8">
+        <v>-0.27896362141189973</v>
+      </c>
+      <c r="H171" s="8">
+        <v>0.33007039239783054</v>
+      </c>
+      <c r="I171" s="8">
+        <v>0.5076101869120162</v>
+      </c>
+      <c r="J171" s="8">
+        <v>-0.77535716324198478</v>
+      </c>
+      <c r="K171" s="8">
+        <v>-0.95460453300051606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="9">
+        <v>44180</v>
+      </c>
+      <c r="B172" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C172" s="8">
+        <v>6.7726229178179777E-3</v>
+      </c>
+      <c r="D172" s="8">
+        <v>-0.13218339085684735</v>
+      </c>
+      <c r="E172" s="8">
+        <v>-0.10699710674623211</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="9">
+        <v>44187</v>
+      </c>
+      <c r="B173" s="8">
+        <v>5.4666282173668011E-3</v>
+      </c>
+      <c r="C173" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D173" s="8">
+        <v>-0.21057402480256987</v>
+      </c>
+      <c r="E173" s="8">
+        <v>-0.18006767462271869</v>
+      </c>
+      <c r="F173" s="8">
+        <v>-0.16529285638050015</v>
+      </c>
+      <c r="G173" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H173" s="8">
+        <v>0.41826310443329145</v>
+      </c>
+      <c r="I173" s="8">
+        <v>0.66051785849967748</v>
+      </c>
+      <c r="J173" s="8">
+        <v>-5.1904633186710417E-2</v>
+      </c>
+      <c r="K173" s="8">
+        <v>-0.32397770942190485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="9">
+        <v>44194</v>
+      </c>
+      <c r="B174" s="8">
+        <v>-3.9231121324721126E-3</v>
+      </c>
+      <c r="C174" s="8">
+        <v>2.0887736053916846E-3</v>
+      </c>
+      <c r="D174" s="8">
+        <v>-0.27864763775994922</v>
+      </c>
+      <c r="E174" s="8">
+        <v>-0.28722191273457182</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G174" s="8">
+        <v>-0.19892091373836329</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" s="8">
+        <v>0.37779857539002565</v>
+      </c>
+      <c r="J174" s="8">
+        <v>-0.12946286753258501</v>
+      </c>
+      <c r="K174" s="8">
+        <v>8.6849341827644991E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="9">
+        <v>44201</v>
+      </c>
+      <c r="B175" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C175" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D175" s="8">
+        <v>-0.63554137614217543</v>
+      </c>
+      <c r="E175" s="8">
+        <v>-0.6309013877607339</v>
+      </c>
+      <c r="F175" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G175" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H175" s="8">
+        <v>0.87847872731286425</v>
+      </c>
+      <c r="I175" s="8">
+        <v>0.47220825986110032</v>
+      </c>
+      <c r="J175" s="8">
+        <v>0.99829055604302419</v>
+      </c>
+      <c r="K175" s="8">
+        <v>0.72503763810683275</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="9">
+        <v>44208</v>
+      </c>
+      <c r="B176" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C176" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D176" s="8">
+        <v>-0.15492684608817842</v>
+      </c>
+      <c r="E176" s="8">
+        <v>-0.13127751045328678</v>
+      </c>
+      <c r="F176" s="8">
+        <v>-0.16529285638050015</v>
+      </c>
+      <c r="G176" s="8">
+        <v>-0.16118058575551619</v>
+      </c>
+      <c r="H176" s="8">
+        <v>0.36491712372799873</v>
+      </c>
+      <c r="I176" s="8">
+        <v>0.63787538174991765</v>
+      </c>
+      <c r="J176" s="8">
+        <v>-0.5802965806706003</v>
+      </c>
+      <c r="K176" s="8">
+        <v>-0.92475156985083495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="9">
+        <v>44215</v>
+      </c>
+      <c r="B177" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C177" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D177" s="8">
+        <v>-0.39719666349591526</v>
+      </c>
+      <c r="E177" s="8">
+        <v>-0.38127614907067264</v>
+      </c>
+      <c r="F177" s="8">
+        <v>-0.16529285638050015</v>
+      </c>
+      <c r="G177" s="8">
+        <v>-0.23814162689164467</v>
+      </c>
+      <c r="H177" s="8">
+        <v>0.54609647594317634</v>
+      </c>
+      <c r="I177" s="8">
+        <v>0.48117692984386073</v>
+      </c>
+      <c r="J177" s="8">
+        <v>0.30252899490900809</v>
+      </c>
+      <c r="K177" s="8">
+        <v>0.15904563303213398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="9">
+        <v>44222</v>
+      </c>
+      <c r="B178" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C178" s="8">
+        <v>-2.1665312402715513E-2</v>
+      </c>
+      <c r="D178" s="8">
+        <v>-6.0724426874702253E-2</v>
+      </c>
+      <c r="E178" s="8">
+        <v>-4.8756486765283082E-2</v>
+      </c>
+      <c r="F178" s="8">
+        <v>-0.19514581953018126</v>
+      </c>
+      <c r="G178" s="8">
+        <v>-0.23814162689164467</v>
+      </c>
+      <c r="H178" s="8">
+        <v>0.39194579611591807</v>
+      </c>
+      <c r="I178" s="8">
+        <v>0.64547998113513694</v>
+      </c>
+      <c r="J178" s="8">
+        <v>-0.61901109285129075</v>
+      </c>
+      <c r="K178" s="8">
+        <v>-0.7134424761836281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="9">
+        <v>44229</v>
+      </c>
+      <c r="B179" s="8">
+        <v>-2.2971307103166583E-2</v>
+      </c>
+      <c r="C179" s="8">
+        <v>-1.6869140139222562E-2</v>
+      </c>
+      <c r="D179" s="8">
+        <v>-0.25145563006469857</v>
+      </c>
+      <c r="E179" s="8">
+        <v>-0.22797113525575771</v>
+      </c>
+      <c r="F179" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G179" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H179" s="8">
+        <v>0.34415513227956962</v>
+      </c>
+      <c r="I179" s="8">
+        <v>0.51626824965513074</v>
+      </c>
+      <c r="J179" s="8">
+        <v>-0.32477161985335073</v>
+      </c>
+      <c r="K179" s="8">
+        <v>-0.51928646174267057</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="9">
+        <v>44236</v>
+      </c>
+      <c r="B180" s="8">
+        <v>-3.2633218014903355E-2</v>
+      </c>
+      <c r="C180" s="8">
+        <v>-2.1665312402715513E-2</v>
+      </c>
+      <c r="D180" s="8">
+        <v>-0.33860249922986235</v>
+      </c>
+      <c r="E180" s="8">
+        <v>-0.28185036893266102</v>
+      </c>
+      <c r="F180" s="8">
+        <v>0.13698801549243339</v>
+      </c>
+      <c r="G180" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H180" s="8">
+        <v>0.23334076593927944</v>
+      </c>
+      <c r="I180" s="8">
+        <v>0.40706895769013884</v>
+      </c>
+      <c r="J180" s="8">
+        <v>-9.8454275945365397E-4</v>
+      </c>
+      <c r="K180" s="8">
+        <v>-0.41687145631460121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="9">
+        <v>44243</v>
+      </c>
+      <c r="B181" s="8">
+        <v>-3.7499407666076366E-2</v>
+      </c>
+      <c r="C181" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D181" s="8">
+        <v>-0.19495979700101917</v>
+      </c>
+      <c r="E181" s="8">
+        <v>-0.15458858932173369</v>
+      </c>
+      <c r="F181" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G181" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H181" s="8">
+        <v>0.37852277578377747</v>
+      </c>
+      <c r="I181" s="8">
+        <v>0.47220825986110032</v>
+      </c>
+      <c r="J181" s="8">
+        <v>-0.61901109285129075</v>
+      </c>
+      <c r="K181" s="8">
+        <v>-0.61165978187368575</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="9">
+        <v>44250</v>
+      </c>
+      <c r="B182" s="8">
+        <v>-3.7499407666076366E-2</v>
+      </c>
+      <c r="C182" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D182" s="8">
+        <v>-0.41283555738037009</v>
+      </c>
+      <c r="E182" s="8">
+        <v>-0.37733913611133318</v>
+      </c>
+      <c r="F182" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G182" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H182" s="8">
+        <v>0.52297405852232215</v>
+      </c>
+      <c r="I182" s="8">
+        <v>0.48117692984386073</v>
+      </c>
+      <c r="J182" s="8">
+        <v>0.20931086607690727</v>
+      </c>
+      <c r="K182" s="8">
+        <v>8.1487398686259566E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="9">
+        <v>44257</v>
+      </c>
+      <c r="B183" s="8">
+        <v>-5.7204478745408668E-2</v>
+      </c>
+      <c r="C183" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D183" s="8">
+        <v>-0.30032031265884546</v>
+      </c>
+      <c r="E183" s="8">
+        <v>-0.27119307445867291</v>
+      </c>
+      <c r="F183" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G183" s="8">
+        <v>-0.23814162689164467</v>
+      </c>
+      <c r="H183" s="8">
+        <v>0.18533154675291894</v>
+      </c>
+      <c r="I183" s="8">
+        <v>0.3270262500166024</v>
+      </c>
+      <c r="J183" s="8">
+        <v>-0.28630533902555461</v>
+      </c>
+      <c r="K183" s="8">
+        <v>-0.51928646174267057</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="9">
+        <v>44264</v>
+      </c>
+      <c r="B184" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C184" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D184" s="8">
+        <v>-0.11643503388870809</v>
+      </c>
+      <c r="E184" s="8">
+        <v>-8.0368314399630575E-2</v>
+      </c>
+      <c r="F184" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G184" s="8">
+        <v>0.25655461494446241</v>
+      </c>
+      <c r="H184" s="8">
+        <v>0.1688022448017083</v>
+      </c>
+      <c r="I184" s="8">
+        <v>0.72552268880867332</v>
+      </c>
+      <c r="J184" s="8">
+        <v>-0.74505181374665574</v>
+      </c>
+      <c r="K184" s="8">
+        <v>-1.1369260897944709</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="9">
+        <v>44271</v>
+      </c>
+      <c r="B185" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C185" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D185" s="8">
+        <v>-7.5613039368453011E-2</v>
+      </c>
+      <c r="E185" s="8">
+        <v>-8.6224846512343661E-2</v>
+      </c>
+      <c r="F185" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G185" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H185" s="8">
+        <v>0.39194579611591807</v>
+      </c>
+      <c r="I185" s="8">
+        <v>0.69715199167945785</v>
+      </c>
+      <c r="J185" s="8">
+        <v>-0.61901109285129075</v>
+      </c>
+      <c r="K185" s="8">
+        <v>-0.68991197877343402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="9">
+        <v>44278</v>
+      </c>
+      <c r="B186" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C186" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D186" s="8">
+        <v>-8.6926799268726415E-2</v>
+      </c>
+      <c r="E186" s="8">
+        <v>-8.3292293091065936E-2</v>
+      </c>
+      <c r="F186" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G186" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H186" s="8">
+        <v>0.28658528045809184</v>
+      </c>
+      <c r="I186" s="8">
+        <v>0.58295962415380298</v>
+      </c>
+      <c r="J186" s="8">
+        <v>-0.68706455609630634</v>
+      </c>
+      <c r="K186" s="8">
+        <v>-0.77481142255992019</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="9">
+        <v>44286</v>
+      </c>
+      <c r="B187" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C187" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D187" s="8">
+        <v>-0.39719666349591526</v>
+      </c>
+      <c r="E187" s="8">
+        <v>-0.35403711090848899</v>
+      </c>
+      <c r="F187" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G187" s="8">
+        <v>9.8330609729568155E-2</v>
+      </c>
+      <c r="H187" s="8">
+        <v>-5.4341306512501492E-2</v>
+      </c>
+      <c r="I187" s="8">
+        <v>-0.19427067361668376</v>
+      </c>
+      <c r="J187" s="8">
+        <v>0.43015292040283776</v>
+      </c>
+      <c r="K187" s="8">
+        <v>0.19327880467437633</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="9">
+        <v>44294</v>
+      </c>
+      <c r="B188" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C188" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D188" s="8">
+        <v>-0.31133537288952284</v>
+      </c>
+      <c r="E188" s="8">
+        <v>-0.285428190280545</v>
+      </c>
+      <c r="F188" s="8">
+        <v>-0.22591747819693508</v>
+      </c>
+      <c r="G188" s="8">
+        <v>-5.5820070097690057E-2</v>
+      </c>
+      <c r="H188" s="8">
+        <v>-0.26198067129074593</v>
+      </c>
+      <c r="I188" s="8">
+        <v>0.10648348040244994</v>
+      </c>
+      <c r="J188" s="8">
+        <v>-0.17905980867195717</v>
+      </c>
+      <c r="K188" s="8">
+        <v>-0.31594553772464051</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="9">
+        <v>44299</v>
+      </c>
+      <c r="B189" s="8">
+        <v>-3.7499407666076366E-2</v>
+      </c>
+      <c r="C189" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D189" s="8">
+        <v>-0.18375519798815609</v>
+      </c>
+      <c r="E189" s="8">
+        <v>-0.13898764887925413</v>
+      </c>
+      <c r="F189" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G189" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H189" s="8">
+        <v>-4.3978519476954851E-2</v>
+      </c>
+      <c r="I189" s="8">
+        <v>0.36784824453685755</v>
+      </c>
+      <c r="J189" s="8">
+        <v>-0.74505181374665574</v>
+      </c>
+      <c r="K189" s="8">
+        <v>-0.92475156985083495</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="9">
+        <v>44306</v>
+      </c>
+      <c r="B190" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C190" s="8">
+        <v>-2.6171174320211207E-3</v>
+      </c>
+      <c r="D190" s="8">
+        <v>-3.2793042185524764E-2</v>
+      </c>
+      <c r="E190" s="8">
+        <v>-5.8433280613834479E-3</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I190" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J190" s="8">
+        <v>-0.83887056896431056</v>
+      </c>
+      <c r="K190" s="8">
+        <v>-1.0333854108536304</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="9">
+        <v>44313</v>
+      </c>
+      <c r="B191" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C191" s="8">
+        <v>1.6075015580131566E-2</v>
+      </c>
+      <c r="D191" s="8">
+        <v>-9.1232980996200606E-3</v>
+      </c>
+      <c r="E191" s="8">
+        <v>1.9576100775592929E-2</v>
+      </c>
+      <c r="F191" s="8">
+        <v>-0.22591747819693508</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" s="8">
+        <v>-0.10782999146348761</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J191" s="8">
+        <v>-0.97945251958549995</v>
+      </c>
+      <c r="K191" s="8">
+        <v>-1.0333854108536304</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="9">
+        <v>44320</v>
+      </c>
+      <c r="B192" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C192" s="8">
+        <v>6.7726229178179777E-3</v>
+      </c>
+      <c r="D192" s="8">
+        <v>-0.19919410113980751</v>
+      </c>
+      <c r="E192" s="8">
+        <v>-0.11000011200600172</v>
+      </c>
+      <c r="F192" s="8">
+        <v>-0.22591747819693508</v>
+      </c>
+      <c r="G192" s="8">
+        <v>-0.23814162689164467</v>
+      </c>
+      <c r="H192" s="8">
+        <v>-8.609000482708172E-2</v>
+      </c>
+      <c r="I192" s="8">
+        <v>2.5357935590081475E-2</v>
+      </c>
+      <c r="J192" s="8">
+        <v>8.0693488254813595E-2</v>
+      </c>
+      <c r="K192" s="8">
+        <v>-0.23160438929088961</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="9">
+        <v>44327</v>
+      </c>
+      <c r="B193" s="8">
+        <v>2.8562343012016236E-2</v>
+      </c>
+      <c r="C193" s="8">
+        <v>2.5291670685055421E-2</v>
+      </c>
+      <c r="D193" s="8">
+        <v>-1.2638240207064428E-2</v>
+      </c>
+      <c r="E193" s="8">
+        <v>-4.3790949447545087E-4</v>
+      </c>
+      <c r="F193" s="8">
+        <v>-0.25766617651151535</v>
+      </c>
+      <c r="G193" s="8">
+        <v>-0.32152323583069564</v>
+      </c>
+      <c r="H193" s="8">
+        <v>2.5701401161035017E-2</v>
+      </c>
+      <c r="I193" s="8">
+        <v>0.3270262500166024</v>
+      </c>
+      <c r="J193" s="8">
+        <v>-0.71563792854036257</v>
+      </c>
+      <c r="K193" s="8">
+        <v>-0.89576403297758278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="9">
+        <v>44334</v>
+      </c>
+      <c r="B194" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C194" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D194" s="8">
+        <v>6.8487304605303986E-2</v>
+      </c>
+      <c r="E194" s="8">
+        <v>6.7296308585279949E-2</v>
+      </c>
+      <c r="F194" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G194" s="8">
+        <v>-0.23814162689164467</v>
+      </c>
+      <c r="H194" s="8">
+        <v>0.21759240897114038</v>
+      </c>
+      <c r="I194" s="8">
+        <v>0.20532931503908258</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K194" s="8">
+        <v>-0.96987200513130445</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="9">
+        <v>44341</v>
+      </c>
+      <c r="B195" s="8">
+        <v>3.7653314713268445E-2</v>
+      </c>
+      <c r="C195" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D195" s="8">
+        <v>-0.1468405486568207</v>
+      </c>
+      <c r="E195" s="8">
+        <v>-0.12515191702660394</v>
+      </c>
+      <c r="F195" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G195" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H195" s="8">
+        <v>-0.88101987969696938</v>
+      </c>
+      <c r="I195" s="8">
+        <v>-0.26703002789911195</v>
+      </c>
+      <c r="J195" s="8">
+        <v>-0.43888492662077183</v>
+      </c>
+      <c r="K195" s="8">
+        <v>-0.53908908903885022</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="9">
+        <v>44348</v>
+      </c>
+      <c r="B196" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C196" s="8">
+        <v>3.8959309413719438E-2</v>
+      </c>
+      <c r="D196" s="8">
+        <v>-4.2420072012688916E-2</v>
+      </c>
+      <c r="E196" s="8">
+        <v>-4.3790949447545087E-4</v>
+      </c>
+      <c r="F196" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G196" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H196" s="8">
+        <v>-1.1221819365138574</v>
+      </c>
+      <c r="I196" s="8">
+        <v>-0.32529893602308774</v>
+      </c>
+      <c r="J196" s="8">
+        <v>-0.11346252618614379</v>
+      </c>
+      <c r="K196" s="8">
+        <v>-0.44377890923452545</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="9">
+        <v>44355</v>
+      </c>
+      <c r="B197" s="8">
+        <v>2.3985675984604538E-2</v>
+      </c>
+      <c r="C197" s="8">
+        <v>2.0693961436426038E-2</v>
+      </c>
+      <c r="D197" s="8">
+        <v>-0.35830757030919491</v>
+      </c>
+      <c r="E197" s="8">
+        <v>-0.30351186571384042</v>
+      </c>
+      <c r="F197" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G197" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H197" s="8">
+        <v>-0.85748938228677529</v>
+      </c>
+      <c r="I197" s="8">
+        <v>-1.192799503727811</v>
+      </c>
+      <c r="J197" s="8">
+        <v>0.45742733832249699</v>
+      </c>
+      <c r="K197" s="8">
+        <v>0.35290895026626012</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="9">
+        <v>44362</v>
+      </c>
+      <c r="B198" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C198" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D198" s="8">
+        <v>-0.1099457184489583</v>
+      </c>
+      <c r="E198" s="8">
+        <v>-7.3095555070550849E-2</v>
+      </c>
+      <c r="F198" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G198" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H198" s="8">
+        <v>-0.50781563380702632</v>
+      </c>
+      <c r="I198" s="8">
+        <v>0.42611715266083333</v>
+      </c>
+      <c r="J198" s="8">
+        <v>-0.5802965806706003</v>
+      </c>
+      <c r="K198" s="8">
+        <v>-0.67835115637235788</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="9">
+        <v>44369</v>
+      </c>
+      <c r="B199" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C199" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D199" s="8">
+        <v>-0.29097445024060781</v>
+      </c>
+      <c r="E199" s="8">
+        <v>-0.2161963987112242</v>
+      </c>
+      <c r="F199" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G199" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H199" s="8">
+        <v>-0.90511743127602984</v>
+      </c>
+      <c r="I199" s="8">
+        <v>-0.74081437998475363</v>
+      </c>
+      <c r="J199" s="8">
+        <v>0.6109371978779059</v>
+      </c>
+      <c r="K199" s="8">
+        <v>0.35699893551778528</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="9">
+        <v>44376</v>
+      </c>
+      <c r="B200" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C200" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D200" s="8">
+        <v>-0.25743472112075649</v>
+      </c>
+      <c r="E200" s="8">
+        <v>-0.16884061202893513</v>
+      </c>
+      <c r="F200" s="8">
+        <v>-0.32435755101018771</v>
+      </c>
+      <c r="G200" s="8">
+        <v>-0.51257847259340494</v>
+      </c>
+      <c r="H200" s="8">
+        <v>-7.5394715710333821E-2</v>
+      </c>
+      <c r="I200" s="8">
+        <v>3.9344177564821371E-2</v>
+      </c>
+      <c r="J200" s="8">
+        <v>-0.70124919108826289</v>
+      </c>
+      <c r="K200" s="8">
+        <v>-0.91015277042968235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="9">
+        <v>44383</v>
+      </c>
+      <c r="B201" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C201" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D201" s="8">
+        <v>-0.1099457184489583</v>
+      </c>
+      <c r="E201" s="8">
+        <v>-9.211587974958084E-2</v>
+      </c>
+      <c r="F201" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G201" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H201" s="8">
+        <v>-0.13005312824819779</v>
+      </c>
+      <c r="I201" s="8">
+        <v>0.15712721322120488</v>
+      </c>
+      <c r="J201" s="8">
+        <v>-8.9932028775949663E-2</v>
+      </c>
+      <c r="K201" s="8">
+        <v>-0.20978534189625009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="9">
+        <v>44390</v>
+      </c>
+      <c r="B202" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C202" s="8">
+        <v>7.0142236850407297E-2</v>
+      </c>
+      <c r="D202" s="8">
+        <v>-7.1870053089618635E-2</v>
+      </c>
+      <c r="E202" s="8">
+        <v>-9.6557041749548836E-2</v>
+      </c>
+      <c r="F202" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G202" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H202" s="8">
+        <v>-0.19984889018373969</v>
+      </c>
+      <c r="I202" s="8">
+        <v>0.1447046932226477</v>
+      </c>
+      <c r="J202" s="8">
+        <v>-0.3546245830030319</v>
+      </c>
+      <c r="K202" s="8">
+        <v>-0.52913875818568223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="9">
+        <v>44397</v>
+      </c>
+      <c r="B203" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C203" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D203" s="8">
+        <v>-5.826440103383991E-2</v>
+      </c>
+      <c r="E203" s="8">
+        <v>-7.454588164819724E-2</v>
+      </c>
+      <c r="F203" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G203" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H203" s="8">
+        <v>-0.11887982765007264</v>
+      </c>
+      <c r="I203" s="8">
+        <v>0.26248772887903121</v>
+      </c>
+      <c r="J203" s="8">
+        <v>-0.49539713688411408</v>
+      </c>
+      <c r="K203" s="8">
+        <v>-0.72541866723034376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="9">
+        <v>44406</v>
+      </c>
+      <c r="B204" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C204" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D204" s="8">
+        <v>-0.27101983571106308</v>
+      </c>
+      <c r="E204" s="8">
+        <v>-0.26239794300584568</v>
+      </c>
+      <c r="F204" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G204" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H204" s="8">
+        <v>3.5270852177185771E-2</v>
+      </c>
+      <c r="I204" s="8">
+        <v>-7.8438858091562022E-2</v>
+      </c>
+      <c r="J204" s="8">
+        <v>6.0890860958633872E-2</v>
+      </c>
+      <c r="K204" s="8">
+        <v>-7.5355072806710124E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="9">
+        <v>44411</v>
+      </c>
+      <c r="B205" s="8">
+        <v>5.5591015399935537E-2</v>
+      </c>
+      <c r="C205" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D205" s="8">
+        <v>-0.15492684608817842</v>
+      </c>
+      <c r="E205" s="8">
+        <v>-0.15458858932173369</v>
+      </c>
+      <c r="F205" s="8">
+        <v>-0.136305319507248</v>
+      </c>
+      <c r="G205" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H205" s="8">
+        <v>-0.15278137932575392</v>
+      </c>
+      <c r="I205" s="8">
+        <v>3.9344177564821371E-2</v>
+      </c>
+      <c r="J205" s="8">
+        <v>3.3862188570714609E-2</v>
+      </c>
+      <c r="K205" s="8">
+        <v>6.522687781447932E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="9">
+        <v>44418</v>
+      </c>
+      <c r="B206" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C206" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D206" s="8">
+        <v>-0.12034893320984441</v>
+      </c>
+      <c r="E206" s="8">
+        <v>-0.13589645630958125</v>
+      </c>
+      <c r="F206" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G206" s="8">
+        <v>0.20654419436980112</v>
+      </c>
+      <c r="H206" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I206" s="8">
+        <v>0.15712721322120488</v>
+      </c>
+      <c r="J206" s="8">
+        <v>-0.13756007776520432</v>
+      </c>
+      <c r="K206" s="8">
+        <v>-0.15382668824820545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="9">
+        <v>44425</v>
+      </c>
+      <c r="B207" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C207" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D207" s="8">
+        <v>-0.15357458083816475</v>
+      </c>
+      <c r="E207" s="8">
+        <v>-0.13898764887925413</v>
+      </c>
+      <c r="F207" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G207" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H207" s="8">
+        <v>-0.14135268350213123</v>
+      </c>
+      <c r="I207" s="8">
+        <v>0.33738903705214901</v>
+      </c>
+      <c r="J207" s="8">
+        <v>-0.3053535339962492</v>
+      </c>
+      <c r="K207" s="8">
+        <v>-0.3906690839205772</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="9">
+        <v>44432</v>
+      </c>
+      <c r="B208" s="8">
+        <v>8.6227984861825438E-2</v>
+      </c>
+      <c r="C208" s="8">
+        <v>8.7533979562276404E-2</v>
+      </c>
+      <c r="D208" s="8">
+        <v>-1.6165580725032838E-2</v>
+      </c>
+      <c r="E208" s="8">
+        <v>7.615825312621189E-3</v>
+      </c>
+      <c r="F208" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G208" s="8">
+        <v>-5.5820070097690057E-2</v>
+      </c>
+      <c r="H208" s="8">
+        <v>7.2658384248806079E-2</v>
+      </c>
+      <c r="I208" s="8">
+        <v>0.44480928567298589</v>
+      </c>
+      <c r="J208" s="8">
+        <v>-0.50709317664730547</v>
+      </c>
+      <c r="K208" s="8">
+        <v>-0.92475156985083495</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="9">
+        <v>44439</v>
+      </c>
+      <c r="B209" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C209" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D209" s="8">
+        <v>7.7108047649211003E-2</v>
+      </c>
+      <c r="E209" s="8">
+        <v>7.6073794406503206E-2</v>
+      </c>
+      <c r="F209" s="8">
+        <v>-0.29045599933450622</v>
+      </c>
+      <c r="G209" s="8">
+        <v>-0.19892091373836329</v>
+      </c>
+      <c r="H209" s="8">
+        <v>0.11750895041415788</v>
+      </c>
+      <c r="I209" s="8">
+        <v>0.37779857539002565</v>
+      </c>
+      <c r="J209" s="8">
+        <v>-0.88930142259120259</v>
+      </c>
+      <c r="K209" s="8">
+        <v>-1.1739673614748198</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="9">
+        <v>44446</v>
+      </c>
+      <c r="B210" s="8">
+        <v>9.4811728553216915E-2</v>
+      </c>
+      <c r="C210" s="8">
+        <v>9.6117723253667742E-2</v>
+      </c>
+      <c r="D210" s="8">
+        <v>0.12732780462823734</v>
+      </c>
+      <c r="E210" s="8">
+        <v>0.13544919682250631</v>
+      </c>
+      <c r="F210" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H210" s="8">
+        <v>0.13490069312602695</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J210" s="8">
+        <v>-0.64567933993345195</v>
+      </c>
+      <c r="K210" s="8">
+        <v>-0.82677116149063123</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="9">
+        <v>44453</v>
+      </c>
+      <c r="B211" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C211" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D211" s="8">
+        <v>3.2119660434429084E-2</v>
+      </c>
+      <c r="E211" s="8">
+        <v>4.5653197705791591E-2</v>
+      </c>
+      <c r="F211" s="8">
+        <v>-0.43355684297517944</v>
+      </c>
+      <c r="G211" s="8">
+        <v>-0.19892091373836329</v>
+      </c>
+      <c r="H211" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I211" s="8">
+        <v>0.29527755170202208</v>
+      </c>
+      <c r="J211" s="8">
+        <v>-0.27691559867571564</v>
+      </c>
+      <c r="K211" s="8">
+        <v>-0.33207491965452418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="9">
+        <v>44460</v>
+      </c>
+      <c r="B212" s="8">
+        <v>7.7569922118710874E-2</v>
+      </c>
+      <c r="C212" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D212" s="8">
+        <v>-0.29875659068266275</v>
+      </c>
+      <c r="E212" s="8">
+        <v>-0.25194488615375626</v>
+      </c>
+      <c r="F212" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G212" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H212" s="8">
+        <v>-0.28795615769400656</v>
+      </c>
+      <c r="I212" s="8">
+        <v>-0.1429773792291332</v>
+      </c>
+      <c r="J212" s="8">
+        <v>0.64496694646421726</v>
+      </c>
+      <c r="K212" s="8">
+        <v>0.56285098972193393</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="9">
+        <v>44467</v>
+      </c>
+      <c r="B213" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C213" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D213" s="8">
+        <v>2.7620215273199272E-2</v>
+      </c>
+      <c r="E213" s="8">
+        <v>1.0286053868500313E-2</v>
+      </c>
+      <c r="F213" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G213" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H213" s="8">
+        <v>0.20159206762469914</v>
+      </c>
+      <c r="I213" s="8">
+        <v>0.52485199334652222</v>
+      </c>
+      <c r="J213" s="8">
+        <v>-0.3053535339962492</v>
+      </c>
+      <c r="K213" s="8">
+        <v>-0.51928646174267057</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="9">
+        <v>44474</v>
+      </c>
+      <c r="B214" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C214" s="8">
+        <v>7.4518611450206107E-2</v>
+      </c>
+      <c r="D214" s="8">
+        <v>5.9791597637749903E-2</v>
+      </c>
+      <c r="E214" s="8">
+        <v>5.3345543328947108E-2</v>
+      </c>
+      <c r="F214" s="8">
+        <v>-0.51359955064871599</v>
+      </c>
+      <c r="G214" s="8">
+        <v>-0.27896362141189973</v>
+      </c>
+      <c r="H214" s="8">
+        <v>9.9809373314756866E-2</v>
+      </c>
+      <c r="I214" s="8">
+        <v>0.46315842434118243</v>
+      </c>
+      <c r="J214" s="8">
+        <v>-0.53090382534102398</v>
+      </c>
+      <c r="K214" s="8">
+        <v>-0.74981012035450278</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="9">
+        <v>44481</v>
+      </c>
+      <c r="B215" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C215" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D215" s="8">
+        <v>-0.22789047481403088</v>
+      </c>
+      <c r="E215" s="8">
+        <v>-0.22290783329921093</v>
+      </c>
+      <c r="F215" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G215" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H215" s="8">
+        <v>-0.32823005683194656</v>
+      </c>
+      <c r="I215" s="8">
+        <v>-1.7814236275127154E-2</v>
+      </c>
+      <c r="J215" s="8">
+        <v>0.30252899490900809</v>
+      </c>
+      <c r="K215" s="8">
+        <v>0.11323609700083975</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="9">
+        <v>44487</v>
+      </c>
+      <c r="B216" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C216" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D216" s="8">
+        <v>-4.7268566359310413E-2</v>
+      </c>
+      <c r="E216" s="8">
+        <v>-6.875715347195277E-2</v>
+      </c>
+      <c r="F216" s="8">
+        <v>9.2536252921599588E-2</v>
+      </c>
+      <c r="G216" s="8">
+        <v>0.20654419436980112</v>
+      </c>
+      <c r="H216" s="8">
+        <v>8.1790867812078449E-2</v>
+      </c>
+      <c r="I216" s="8">
+        <v>0.46315842434118243</v>
+      </c>
+      <c r="J216" s="8">
+        <v>-0.64567933993345195</v>
+      </c>
+      <c r="K216" s="8">
+        <v>-0.52913875818568223</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="9">
+        <v>44494</v>
+      </c>
+      <c r="B217" s="8">
+        <v>4.6662384655634166E-2</v>
+      </c>
+      <c r="C217" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D217" s="8">
+        <v>-0.20629136301056913</v>
+      </c>
+      <c r="E217" s="8">
+        <v>-0.17524063387440286</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J217" s="8">
+        <v>0.24875259812820397</v>
+      </c>
+      <c r="K217" s="8">
+        <v>-0.43472907371460745</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="9">
+        <v>44501</v>
+      </c>
+      <c r="B218" s="8">
+        <v>1.9387966735974971E-2</v>
+      </c>
+      <c r="C218" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D218" s="8">
+        <v>1.0564656872599325E-2</v>
+      </c>
+      <c r="E218" s="8">
+        <v>-5.8433280613834479E-3</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J218" s="8">
+        <v>-0.64567933993345195</v>
+      </c>
+      <c r="K218" s="8">
+        <v>-0.28444687066526958</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="9">
+        <v>44508</v>
+      </c>
+      <c r="B219" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C219" s="8">
+        <v>2.5291670685055421E-2</v>
+      </c>
+      <c r="D219" s="8">
+        <v>1.2855608619155374E-2</v>
+      </c>
+      <c r="E219" s="8">
+        <v>-8.5570339329797285E-3</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J219" s="8">
+        <v>-0.71563792854036257</v>
+      </c>
+      <c r="K219" s="8">
+        <v>-0.67835115637235788</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="9">
+        <v>44515</v>
+      </c>
+      <c r="B220" s="8">
+        <v>2.8562343012016236E-2</v>
+      </c>
+      <c r="C220" s="8">
+        <v>3.4424154248328016E-2</v>
+      </c>
+      <c r="D220" s="8">
+        <v>-2.4444752794053528E-2</v>
+      </c>
+      <c r="E220" s="8">
+        <v>-4.3114722858615152E-2</v>
+      </c>
+      <c r="F220" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G220" s="8">
+        <v>0.28065216652352282</v>
+      </c>
+      <c r="H220" s="8">
+        <v>0.40519102286593878</v>
+      </c>
+      <c r="I220" s="8">
+        <v>0.73249135812476673</v>
+      </c>
+      <c r="J220" s="8">
+        <v>-0.39586754153708109</v>
+      </c>
+      <c r="K220" s="8">
+        <v>-0.30007218856835038</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="9">
+        <v>44522</v>
+      </c>
+      <c r="B221" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C221" s="8">
+        <v>2.0693961436426038E-2</v>
+      </c>
+      <c r="D221" s="8">
+        <v>-0.10221372116563188</v>
+      </c>
+      <c r="E221" s="8">
+        <v>-0.15301749708969248</v>
+      </c>
+      <c r="F221" s="8">
+        <v>2.191868570764606E-2</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H221" s="8">
+        <v>0.31578443515035415</v>
+      </c>
+      <c r="I221" s="8">
+        <v>0.62249046291043819</v>
+      </c>
+      <c r="J221" s="8">
+        <v>-0.24926406734520556</v>
+      </c>
+      <c r="K221" s="8">
+        <v>-1.4360560103868325E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="9">
+        <v>44529</v>
+      </c>
+      <c r="B222" s="8">
+        <v>7.8277890494054441E-4</v>
+      </c>
+      <c r="C222" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D222" s="8">
+        <v>-0.10093084735274285</v>
+      </c>
+      <c r="E222" s="8">
+        <v>-0.11906361815934859</v>
+      </c>
+      <c r="F222" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G222" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H222" s="8">
+        <v>6.3441729143882034E-2</v>
+      </c>
+      <c r="I222" s="8">
+        <v>-6.2934671555596761E-2</v>
+      </c>
+      <c r="J222" s="8">
+        <v>-0.46110806340548199</v>
+      </c>
+      <c r="K222" s="8">
+        <v>-0.81352593474061063</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="9">
+        <v>44536</v>
+      </c>
+      <c r="B223" s="8">
+        <v>5.4666282173668011E-3</v>
+      </c>
+      <c r="C223" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D223" s="8">
+        <v>-0.23080592877415493</v>
+      </c>
+      <c r="E223" s="8">
+        <v>-0.19142221672564461</v>
+      </c>
+      <c r="F223" s="8">
+        <v>0.24017225172766413</v>
+      </c>
+      <c r="G223" s="8">
+        <v>0.51327446179227654</v>
+      </c>
+      <c r="H223" s="8">
+        <v>0.32295292462896669</v>
+      </c>
+      <c r="I223" s="8">
+        <v>0.66051785849967748</v>
+      </c>
+      <c r="J223" s="8">
+        <v>0.64496694646421726</v>
+      </c>
+      <c r="K223" s="8">
+        <v>0.49053032814230785</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="9">
+        <v>44543</v>
+      </c>
+      <c r="B224" s="8">
+        <v>1.0128641323178224E-2</v>
+      </c>
+      <c r="C224" s="8">
+        <v>1.1434636023629218E-2</v>
+      </c>
+      <c r="D224" s="8">
+        <v>-0.38349781913775338</v>
+      </c>
+      <c r="E224" s="8">
+        <v>-0.3463888900702321</v>
+      </c>
+      <c r="F224" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G224" s="8">
+        <v>-5.5820070097690057E-2</v>
+      </c>
+      <c r="H224" s="8">
+        <v>0.13490069312602695</v>
+      </c>
+      <c r="I224" s="8">
+        <v>0.31655495014930701</v>
+      </c>
+      <c r="J224" s="8">
+        <v>8.0693488254813595E-2</v>
+      </c>
+      <c r="K224" s="8">
+        <v>0.17386071881727477</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="9">
+        <v>44550</v>
+      </c>
+      <c r="B225" s="8">
+        <v>-1.3401856087015879E-2</v>
+      </c>
+      <c r="C225" s="8">
+        <v>-7.3452586279670008E-3</v>
+      </c>
+      <c r="D225" s="8">
+        <v>-0.32889368510290146</v>
+      </c>
+      <c r="E225" s="8">
+        <v>-0.26239794300584568</v>
+      </c>
+      <c r="F225" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G225" s="8">
+        <v>0.28065216652352282</v>
+      </c>
+      <c r="H225" s="8">
+        <v>5.4139336481568462E-2</v>
+      </c>
+      <c r="I225" s="8">
+        <v>0.29527755170202208</v>
+      </c>
+      <c r="J225" s="8">
+        <v>0.29727963902286419</v>
+      </c>
+      <c r="K225" s="8">
+        <v>-0.12037875418066531</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="9">
+        <v>44557</v>
+      </c>
+      <c r="B226" s="8">
+        <v>-2.779059353911548E-2</v>
+      </c>
+      <c r="C226" s="8">
+        <v>-1.2095861386564851E-2</v>
+      </c>
+      <c r="D226" s="8">
+        <v>-0.12559140917469452</v>
+      </c>
+      <c r="E226" s="8">
+        <v>-8.1829235039305406E-2</v>
+      </c>
+      <c r="F226" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G226" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H226" s="8">
+        <v>0.31578443515035415</v>
+      </c>
+      <c r="I226" s="8">
+        <v>0.52485199334652222</v>
+      </c>
+      <c r="J226" s="8">
+        <v>-0.82261004809253035</v>
+      </c>
+      <c r="K226" s="8">
+        <v>-0.92475156985083495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="9">
+        <v>44564</v>
+      </c>
+      <c r="B227" s="8">
+        <v>-4.730340776269721E-2</v>
+      </c>
+      <c r="C227" s="8">
+        <v>-2.6484598838664448E-2</v>
+      </c>
+      <c r="D227" s="8">
+        <v>-7.686382127010552E-2</v>
+      </c>
+      <c r="E227" s="8">
+        <v>-3.3317583613631761E-2</v>
+      </c>
+      <c r="F227" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G227" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H227" s="8">
+        <v>0.35112380159566303</v>
+      </c>
+      <c r="I227" s="8">
+        <v>0.59895996550024411</v>
+      </c>
+      <c r="J227" s="8">
+        <v>-0.76008969111119618</v>
+      </c>
+      <c r="K227" s="8">
+        <v>-0.92475156985083495</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="9">
+        <v>44571</v>
+      </c>
+      <c r="B228" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C228" s="8">
+        <v>-3.1327223314452361E-2</v>
+      </c>
+      <c r="D228" s="8">
+        <v>-0.15763687484704358</v>
+      </c>
+      <c r="E228" s="8">
+        <v>-0.13744085816095528</v>
+      </c>
+      <c r="F228" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G228" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H228" s="8">
+        <v>0.36491712372799873</v>
+      </c>
+      <c r="I228" s="8">
+        <v>0.66051785849967748</v>
+      </c>
+      <c r="J228" s="8">
+        <v>-8.9932028775949663E-2</v>
+      </c>
+      <c r="K228" s="8">
+        <v>-0.41687145631460121</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="9">
+        <v>44578</v>
+      </c>
+      <c r="B229" s="8">
+        <v>-4.730340776269721E-2</v>
+      </c>
+      <c r="C229" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D229" s="8">
+        <v>-3.8799066245736633E-2</v>
+      </c>
+      <c r="E229" s="8">
+        <v>-1.8113420653197671E-2</v>
+      </c>
+      <c r="F229" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G229" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H229" s="8">
+        <v>0.46890683725204635</v>
+      </c>
+      <c r="I229" s="8">
+        <v>0.77331335264502188</v>
+      </c>
+      <c r="J229" s="8">
+        <v>-0.5802965806706003</v>
+      </c>
+      <c r="K229" s="8">
+        <v>-0.86759315601088649</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B230" s="8">
+        <v>-6.7204562079992258E-2</v>
+      </c>
+      <c r="C230" s="8">
+        <v>-4.5997413062246216E-2</v>
+      </c>
+      <c r="D230" s="8">
+        <v>-4.8484371980200308E-2</v>
+      </c>
+      <c r="E230" s="8">
+        <v>-3.7504609967848213E-2</v>
+      </c>
+      <c r="F230" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G230" s="8">
+        <v>0.20654419436980112</v>
+      </c>
+      <c r="H230" s="8">
+        <v>0.30856418717686701</v>
+      </c>
+      <c r="I230" s="8">
+        <v>0.64547998113513694</v>
+      </c>
+      <c r="J230" s="8">
+        <v>-0.5802965806706003</v>
+      </c>
+      <c r="K230" s="8">
+        <v>-0.45291139279779785</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="9">
+        <v>44592</v>
+      </c>
+      <c r="B231" s="8">
+        <v>-7.2242356109949293E-2</v>
+      </c>
+      <c r="C231" s="8">
+        <v>-5.0935694702828826E-2</v>
+      </c>
+      <c r="D231" s="8">
+        <v>-2.3257809034524801E-2</v>
+      </c>
+      <c r="E231" s="8">
+        <v>-1.6742618519419109E-2</v>
+      </c>
+      <c r="F231" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G231" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H231" s="8">
+        <v>0.46890683725204635</v>
+      </c>
+      <c r="I231" s="8">
+        <v>0.58295962415380298</v>
+      </c>
+      <c r="J231" s="8">
+        <v>-0.73023672796151506</v>
+      </c>
+      <c r="K231" s="8">
+        <v>-0.85379983387855063</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="9">
+        <v>44599</v>
+      </c>
+      <c r="B232" s="8">
+        <v>-5.2241689403279779E-2</v>
+      </c>
+      <c r="C232" s="8">
+        <v>-5.0935694702828826E-2</v>
+      </c>
+      <c r="D232" s="8">
+        <v>-0.58852416962546494</v>
+      </c>
+      <c r="E232" s="8">
+        <v>-0.54833023373383893</v>
+      </c>
+      <c r="F232" s="8">
+        <v>0.25959033758476585</v>
+      </c>
+      <c r="G232" s="8">
+        <v>0.23186200235409088</v>
+      </c>
+      <c r="H232" s="8">
+        <v>0.43116650926919942</v>
+      </c>
+      <c r="I232" s="8">
+        <v>0.56669910328202266</v>
+      </c>
+      <c r="J232" s="8">
+        <v>0.10650137221068635</v>
+      </c>
+      <c r="K232" s="8">
+        <v>-0.10083415810769501</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="9">
+        <v>44606</v>
+      </c>
+      <c r="B233" s="8">
+        <v>-5.2241689403279779E-2</v>
+      </c>
+      <c r="C233" s="8">
+        <v>-4.5997413062246216E-2</v>
+      </c>
+      <c r="D233" s="8">
+        <v>-0.2925260409320265</v>
+      </c>
+      <c r="E233" s="8">
+        <v>-0.26239794300584568</v>
+      </c>
+      <c r="F233" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G233" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H233" s="8">
+        <v>0.27165963024141604</v>
+      </c>
+      <c r="I233" s="8">
+        <v>0.49006587726110679</v>
+      </c>
+      <c r="J233" s="8">
+        <v>-0.23124556184252715</v>
+      </c>
+      <c r="K233" s="8">
+        <v>-0.17444597545094118</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="9">
+        <v>44613</v>
+      </c>
+      <c r="B234" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C234" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D234" s="8">
+        <v>-0.38349781913775338</v>
+      </c>
+      <c r="E234" s="8">
+        <v>-0.30716817691695081</v>
+      </c>
+      <c r="F234" s="8">
+        <v>-0.10813444254055168</v>
+      </c>
+      <c r="G234" s="8">
+        <v>-0.5666456938636808</v>
+      </c>
+      <c r="H234" s="8">
+        <v>-0.15278137932575392</v>
+      </c>
+      <c r="I234" s="8">
+        <v>-1.018446116583033</v>
+      </c>
+      <c r="J234" s="8">
+        <v>-3.7089547401569806E-2</v>
+      </c>
+      <c r="K234" s="8">
+        <v>-0.65562290529480183</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="9">
+        <v>44620</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F235" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G235" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H235" s="8">
+        <v>3.5270852177185771E-2</v>
+      </c>
+      <c r="I235" s="8">
+        <v>0.26248772887903121</v>
+      </c>
+      <c r="J235" s="8">
+        <v>-0.50709317664730547</v>
+      </c>
+      <c r="K235" s="8">
+        <v>-0.60096449275693786</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="9">
+        <v>44627</v>
+      </c>
+      <c r="B236" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C236" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D236" s="8">
+        <v>-0.47795802014037364</v>
+      </c>
+      <c r="E236" s="8">
+        <v>-0.45069176416992307</v>
+      </c>
+      <c r="F236" s="8">
+        <v>0.13698801549243339</v>
+      </c>
+      <c r="G236" s="8">
+        <v>-0.1248129415846414</v>
+      </c>
+      <c r="H236" s="8">
+        <v>7.2658384248806079E-2</v>
+      </c>
+      <c r="I236" s="8">
+        <v>-0.34550164334060723</v>
+      </c>
+      <c r="J236" s="8">
+        <v>1.0809408271236414</v>
+      </c>
+      <c r="K236" s="8">
+        <v>0.45785954585275923</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="9">
+        <v>44634</v>
+      </c>
+      <c r="B237" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C237" s="8">
+        <v>-3.6193412965625303E-2</v>
+      </c>
+      <c r="D237" s="8">
+        <v>-0.21919476784647701</v>
+      </c>
+      <c r="E237" s="8">
+        <v>-0.18654018912833606</v>
+      </c>
+      <c r="F237" s="8">
+        <v>-0.19514581953018126</v>
+      </c>
+      <c r="G237" s="8">
+        <v>-0.19892091373836329</v>
+      </c>
+      <c r="H237" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I237" s="8">
+        <v>0.20532931503908258</v>
+      </c>
+      <c r="J237" s="8">
+        <v>-0.39586754153708109</v>
+      </c>
+      <c r="K237" s="8">
+        <v>-0.65562290529480183</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="9">
+        <v>44641</v>
+      </c>
+      <c r="B238" s="8">
+        <v>-4.730340776269721E-2</v>
+      </c>
+      <c r="C238" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D238" s="8">
+        <v>-0.24551207616385037</v>
+      </c>
+      <c r="E238" s="8">
+        <v>-0.19632819549449898</v>
+      </c>
+      <c r="F238" s="8">
+        <v>0.31567980423580938</v>
+      </c>
+      <c r="G238" s="8">
+        <v>0.32717218215841576</v>
+      </c>
+      <c r="H238" s="8">
+        <v>0.20159206762469914</v>
+      </c>
+      <c r="I238" s="8">
+        <v>0.34764553721933811</v>
+      </c>
+      <c r="J238" s="8">
+        <v>0.11285059988934504</v>
+      </c>
+      <c r="K238" s="8">
+        <v>0.11323609700083975</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="9">
+        <v>44648</v>
+      </c>
+      <c r="B239" s="8">
+        <v>-4.2389392960268273E-2</v>
+      </c>
+      <c r="C239" s="8">
+        <v>-4.1083398259817237E-2</v>
+      </c>
+      <c r="D239" s="8">
+        <v>-0.12690633375600346</v>
+      </c>
+      <c r="E239" s="8">
+        <v>-0.11452159672484769</v>
+      </c>
+      <c r="F239" s="8">
+        <v>-0.19514581953018126</v>
+      </c>
+      <c r="G239" s="8">
+        <v>8.7184510398812497E-3</v>
+      </c>
+      <c r="H239" s="8">
+        <v>-7.5394715710333821E-2</v>
+      </c>
+      <c r="I239" s="8">
+        <v>0.26248772887903121</v>
+      </c>
+      <c r="J239" s="8">
+        <v>-0.44993476280735667</v>
+      </c>
+      <c r="K239" s="8">
+        <v>-0.68991197877343402</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="9">
+        <v>44655</v>
+      </c>
+      <c r="B240" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C240" s="8">
+        <v>-2.1665312402715513E-2</v>
+      </c>
+      <c r="D240" s="8">
+        <v>-3.8799066245736633E-2</v>
+      </c>
+      <c r="E240" s="8">
+        <v>-2.4995760276139509E-2</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I240" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J240" s="8">
+        <v>-0.6059390112839379</v>
+      </c>
+      <c r="K240" s="8">
+        <v>-0.76223264035306015</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="9">
+        <v>44662</v>
+      </c>
+      <c r="B241" s="8">
+        <v>-1.8175134839673552E-2</v>
+      </c>
+      <c r="C241" s="8">
+        <v>-2.6171174320211207E-3</v>
+      </c>
+      <c r="D241" s="8">
+        <v>1.969714043587184E-2</v>
+      </c>
+      <c r="E241" s="8">
+        <v>4.8223893208892435E-2</v>
+      </c>
+      <c r="F241" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H241" s="8">
+        <v>0.33007039239783054</v>
+      </c>
+      <c r="I241" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J241" s="8">
+        <v>-0.6059390112839379</v>
+      </c>
+      <c r="K241" s="8">
+        <v>5.4237756238884029E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="9">
+        <v>44669</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G242" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H242" s="8">
+        <v>-8.609000482708172E-2</v>
+      </c>
+      <c r="I242" s="8">
+        <v>0.39740704677840194</v>
+      </c>
+      <c r="J242" s="8">
+        <v>-0.24021423182528762</v>
+      </c>
+      <c r="K242" s="8">
+        <v>0.87433393946929305</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="9">
+        <v>44676</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" s="8">
+        <v>0.20016691711396498</v>
+      </c>
+      <c r="G243" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H243" s="8">
+        <v>-0.13005312824819779</v>
+      </c>
+      <c r="I243" s="8">
+        <v>0.34764553721933811</v>
+      </c>
+      <c r="J243" s="8">
+        <v>-0.19615424203125725</v>
+      </c>
+      <c r="K243" s="8">
+        <v>-0.42576040373184715</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="9">
+        <v>44683</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" s="8">
+        <v>-0.4727775561284609</v>
+      </c>
+      <c r="G244" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H244" s="8">
+        <v>-0.30120138444402728</v>
+      </c>
+      <c r="I244" s="8">
+        <v>0.15712721322120488</v>
+      </c>
+      <c r="J244" s="8">
+        <v>-0.21354598474312642</v>
+      </c>
+      <c r="K244" s="8">
+        <v>-0.49029892486941834</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="9">
+        <v>44690</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G245" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H245" s="8">
+        <v>6.3441729143882034E-2</v>
+      </c>
+      <c r="I245" s="8">
+        <v>0.38765087183303726</v>
+      </c>
+      <c r="J245" s="8">
+        <v>-0.56771779846374004</v>
+      </c>
+      <c r="K245" s="8">
+        <v>-0.89576403297758278</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="9">
+        <v>44697</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" s="8">
+        <v>-8.0735468352437126E-2</v>
+      </c>
+      <c r="G246" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H246" s="8">
+        <v>-0.62970545141606327</v>
+      </c>
+      <c r="I246" s="8">
+        <v>3.9344177564821371E-2</v>
+      </c>
+      <c r="J246" s="8">
+        <v>0.2920025819220205</v>
+      </c>
+      <c r="K246" s="8">
+        <v>-7.5355072806710124E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="9">
+        <v>44704</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="8">
+        <v>-2.7739268827252079E-3</v>
+      </c>
+      <c r="G247" s="8">
+        <v>3.9490109706634788E-2</v>
+      </c>
+      <c r="H247" s="8">
+        <v>2.5701401161035017E-2</v>
+      </c>
+      <c r="I247" s="8">
+        <v>0.47220825986110032</v>
+      </c>
+      <c r="J247" s="8">
+        <v>-0.63225631960131146</v>
+      </c>
+      <c r="K247" s="8">
+        <v>-0.73754002776268857</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="9">
+        <v>44712</v>
+      </c>
+      <c r="B248" s="8">
+        <v>3.3118159547877057E-2</v>
+      </c>
+      <c r="C248" s="8">
+        <v>2.986833771246716E-2</v>
+      </c>
+      <c r="D248" s="8">
+        <v>7.2806965749820401E-2</v>
+      </c>
+      <c r="E248" s="8">
+        <v>6.855496199247603E-2</v>
+      </c>
+      <c r="F248" s="8">
+        <v>0.15849422071339697</v>
+      </c>
+      <c r="G248" s="8">
+        <v>0.39313014995021317</v>
+      </c>
+      <c r="H248" s="8">
+        <v>0.27165963024141604</v>
+      </c>
+      <c r="I248" s="8">
+        <v>0.73941180096934045</v>
+      </c>
+      <c r="J248" s="8">
+        <v>-0.53090382534102398</v>
+      </c>
+      <c r="K248" s="8">
+        <v>-0.56954829652355887</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="9">
+        <v>44719</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="9">
+        <v>44726</v>
+      </c>
+      <c r="B250" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C250" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D250" s="8">
+        <v>0.13949834024849253</v>
+      </c>
+      <c r="E250" s="8">
+        <v>0.12717980533999948</v>
+      </c>
+      <c r="F250" s="8">
+        <v>0.11500910877365818</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H250" s="8">
+        <v>0.43755630736797047</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J250" s="8">
+        <v>-0.49539713688411408</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="9">
+        <v>44732</v>
+      </c>
+      <c r="B251" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C251" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D251" s="8">
+        <v>0.12426188500640259</v>
+      </c>
+      <c r="E251" s="8">
+        <v>0.12836534193410123</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="9">
+        <v>44739</v>
+      </c>
+      <c r="B252" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C252" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D252" s="8">
+        <v>4.4389753026243525E-2</v>
+      </c>
+      <c r="E252" s="8">
+        <v>0.14248322347988615</v>
+      </c>
+      <c r="F252" s="8">
+        <v>-5.4067221270275821E-2</v>
+      </c>
+      <c r="G252" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H252" s="8">
+        <v>-0.13005312824819779</v>
+      </c>
+      <c r="I252" s="8">
+        <v>0.20532931503908258</v>
+      </c>
+      <c r="J252" s="8">
+        <v>-0.49539713688411408</v>
+      </c>
+      <c r="K252" s="8">
+        <v>-0.64444960469667667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B253" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C253" s="8">
+        <v>4.3473989768245777E-2</v>
+      </c>
+      <c r="D253" s="8">
+        <v>-0.1617157384218646</v>
+      </c>
+      <c r="E253" s="8">
+        <v>-0.16248129012064275</v>
+      </c>
+      <c r="F253" s="8">
+        <v>0.22036962443148442</v>
+      </c>
+      <c r="G253" s="8">
+        <v>-8.9721621773371479E-2</v>
+      </c>
+      <c r="H253" s="8">
+        <v>-3.5689811390782391E-3</v>
+      </c>
+      <c r="I253" s="8">
+        <v>0.22858617720334984</v>
+      </c>
+      <c r="J253" s="8">
+        <v>-2.9763507309496853E-2</v>
+      </c>
+      <c r="K253" s="8">
+        <v>-0.52913875818568223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="9">
+        <v>44753</v>
+      </c>
+      <c r="B254" s="8">
+        <v>6.002561246780138E-2</v>
+      </c>
+      <c r="C254" s="8">
+        <v>5.2442659751006253E-2</v>
+      </c>
+      <c r="D254" s="8">
+        <v>-0.2863340706841056</v>
+      </c>
+      <c r="E254" s="8">
+        <v>-0.24159996631136363</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G254" s="8">
+        <v>0.18056870796654043</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I254" s="8">
+        <v>0.24001487302697261</v>
+      </c>
+      <c r="J254" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K254" s="8">
+        <v>-0.29222901110732458</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="9">
+        <v>44760</v>
+      </c>
+      <c r="B255" s="8">
+        <v>5.5591015399935537E-2</v>
+      </c>
+      <c r="C255" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D255" s="8">
+        <v>-0.20914443199297558</v>
+      </c>
+      <c r="E255" s="8">
+        <v>-0.13435443595776581</v>
+      </c>
+      <c r="F255" s="8">
+        <v>0.1795476299112293</v>
+      </c>
+      <c r="G255" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H255" s="8">
+        <v>-0.26198067129074593</v>
+      </c>
+      <c r="I255" s="8">
+        <v>0.38765087183303726</v>
+      </c>
+      <c r="J255" s="8">
+        <v>-0.19615424203125725</v>
+      </c>
+      <c r="K255" s="8">
+        <v>-0.50953028679730594</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="9">
+        <v>44768</v>
+      </c>
+      <c r="B256" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C256" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D256" s="8">
+        <v>-0.1617157384218646</v>
+      </c>
+      <c r="E256" s="8">
+        <v>-9.211587974958084E-2</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J256" s="8">
+        <v>-0.46110806340548199</v>
+      </c>
+      <c r="K256" s="8">
+        <v>-0.77481142255992019</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="9">
+        <v>44774</v>
+      </c>
+      <c r="B257" s="8">
+        <v>5.5591015399935537E-2</v>
+      </c>
+      <c r="C257" s="8">
+        <v>8.3214318417760058E-2</v>
+      </c>
+      <c r="D257" s="8">
+        <v>-0.20914443199297558</v>
+      </c>
+      <c r="E257" s="8">
+        <v>-0.47206009857562198</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J257" s="8">
+        <v>-0.49539713688411408</v>
+      </c>
+      <c r="K257" s="8">
+        <v>-0.65562290529480183</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="9">
+        <v>44781</v>
+      </c>
+      <c r="B258" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C258" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D258" s="8">
+        <v>-0.14549916683261949</v>
+      </c>
+      <c r="E258" s="8">
+        <v>-0.12515191702660394</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H258" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I258" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J258" s="8">
+        <v>-0.36477695446705</v>
+      </c>
+      <c r="K258" s="8">
+        <v>-0.44377890923452545</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="9">
+        <v>44788</v>
+      </c>
+      <c r="B259" s="8">
+        <v>6.4440630676918076E-2</v>
+      </c>
+      <c r="C259" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D259" s="8">
+        <v>-9.6949637268707979E-4</v>
+      </c>
+      <c r="E259" s="8">
+        <v>4.938447541904774E-3</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J259" s="8">
+        <v>-0.39586754153708109</v>
+      </c>
+      <c r="K259" s="8">
+        <v>-0.88157939798562635</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="9">
+        <v>44795</v>
+      </c>
+      <c r="B260" s="8">
+        <v>5.5591015399935537E-2</v>
+      </c>
+      <c r="C260" s="8">
+        <v>9.1835061461667145E-2</v>
+      </c>
+      <c r="D260" s="8">
+        <v>-0.27864763775994922</v>
+      </c>
+      <c r="E260" s="8">
+        <v>-0.25194488615375626</v>
+      </c>
+      <c r="F260" s="8">
+        <v>4.6016237286706764E-2</v>
+      </c>
+      <c r="G260" s="8">
+        <v>6.9343072856315996E-2</v>
+      </c>
+      <c r="H260" s="8">
+        <v>-7.5394715710333821E-2</v>
+      </c>
+      <c r="I260" s="8">
+        <v>0.22858617720334984</v>
+      </c>
+      <c r="J260" s="8">
+        <v>6.0890860958633872E-2</v>
+      </c>
+      <c r="K260" s="8">
+        <v>-4.43928472027433E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="9">
+        <v>44802</v>
+      </c>
+      <c r="B261" s="8">
+        <v>6.8836242149956275E-2</v>
+      </c>
+      <c r="C261" s="8">
+        <v>5.6897010100386669E-2</v>
+      </c>
+      <c r="D261" s="8">
+        <v>-0.18514892643675979</v>
+      </c>
+      <c r="E261" s="8">
+        <v>-0.15144886931706605</v>
+      </c>
+      <c r="F261" s="8">
+        <v>6.9546734696900869E-2</v>
+      </c>
+      <c r="G261" s="8">
+        <v>0.15390046088437903</v>
+      </c>
+      <c r="H261" s="8">
+        <v>-1.3519311992246262E-2</v>
+      </c>
+      <c r="I261" s="8">
+        <v>0.34764553721933811</v>
+      </c>
+      <c r="J261" s="8">
+        <v>-0.27691559867571564</v>
+      </c>
+      <c r="K261" s="8">
+        <v>-0.42576040373184715</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="9">
+        <v>44811</v>
+      </c>
+      <c r="B262" s="8">
+        <v>4.2167995067794964E-2</v>
+      </c>
+      <c r="C262" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D262" s="8">
+        <v>-0.7271385452375787</v>
+      </c>
+      <c r="E262" s="8">
+        <v>-0.12974259073520295</v>
+      </c>
+      <c r="F262" s="8">
+        <v>-2.8091734867015182E-2</v>
+      </c>
+      <c r="G262" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H262" s="8">
+        <v>-0.26198067129074593</v>
+      </c>
+      <c r="I262" s="8">
+        <v>-0.32529893602308774</v>
+      </c>
+      <c r="J262" s="8">
+        <v>1.502304521299604</v>
+      </c>
+      <c r="K262" s="8">
+        <v>0.91952593366066637</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="9">
+        <v>44816</v>
+      </c>
+      <c r="B263" s="8">
+        <v>5.1136665050555148E-2</v>
+      </c>
+      <c r="C263" s="8">
+        <v>4.7968379356085229E-2</v>
+      </c>
+      <c r="D263" s="8">
+        <v>-0.18097355502627929</v>
+      </c>
+      <c r="E263" s="8">
+        <v>-0.12974259073520295</v>
+      </c>
+      <c r="F263" s="8">
+        <v>9.2536252921599588E-2</v>
+      </c>
+      <c r="G263" s="8">
+        <v>-2.3030247274699114E-2</v>
+      </c>
+      <c r="H263" s="8">
+        <v>-0.21197025071608455</v>
+      </c>
+      <c r="I263" s="8">
+        <v>9.3411398835097165E-2</v>
+      </c>
+      <c r="J263" s="8">
+        <v>-0.3346239162963624</v>
+      </c>
+      <c r="K263" s="8">
+        <v>-0.67835115637235788</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="9">
+        <v>44826</v>
+      </c>
+      <c r="B264" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C264" s="8">
+        <v>6.1331607168252339E-2</v>
+      </c>
+      <c r="D264" s="8">
+        <v>-3.0400696546904929E-2</v>
+      </c>
+      <c r="E264" s="8">
+        <v>0.15409775590057911</v>
+      </c>
+      <c r="F264" s="8">
+        <v>0.13698801549243339</v>
+      </c>
+      <c r="G264" s="8">
+        <v>0.20654419436980112</v>
+      </c>
+      <c r="H264" s="8">
+        <v>0.11750895041415788</v>
+      </c>
+      <c r="I264" s="8">
+        <v>0.36784824453685755</v>
+      </c>
+      <c r="J264" s="8">
+        <v>-0.24021423182528762</v>
+      </c>
+      <c r="K264" s="8">
+        <v>-0.4808201809148745</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="9">
+        <v>44832</v>
+      </c>
+      <c r="B265" s="8">
+        <v>7.3212616749755044E-2</v>
+      </c>
+      <c r="C265" s="8">
+        <v>6.574662537736907E-2</v>
+      </c>
+      <c r="D265" s="8">
+        <v>5.9791597637749903E-2</v>
+      </c>
+      <c r="E265" s="8">
+        <v>7.7321455204658593E-2</v>
+      </c>
+      <c r="F265" s="8">
+        <v>0.29733066556761284</v>
+      </c>
+      <c r="G265" s="8">
+        <v>0.12650148669626454</v>
+      </c>
+      <c r="H265" s="8">
+        <v>-0.14135268350213123</v>
+      </c>
+      <c r="I265" s="8">
+        <v>0.251314428280906</v>
+      </c>
+      <c r="J265" s="8">
+        <v>-0.34457424714953039</v>
+      </c>
+      <c r="K265" s="8">
+        <v>-0.64444960469667667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>